--- a/vol_arb/result.xlsx
+++ b/vol_arb/result.xlsx
@@ -14,8 +14,7 @@
     <sheet name="Put_deltas" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Call_prices" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Put_prices" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Settlment_prices" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Options_PNL" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Options_PNL" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -488,10 +487,10 @@
         <v>0.01776780881856481</v>
       </c>
       <c r="E2" t="n">
-        <v>-1248.9937</v>
+        <v>0.0456868510977915</v>
       </c>
       <c r="F2" t="n">
-        <v>99.69999999999999</v>
+        <v>0.03167838230059022</v>
       </c>
     </row>
     <row r="3">
@@ -508,10 +507,10 @@
         <v>0.1522128291429116</v>
       </c>
       <c r="E3" t="n">
-        <v>-288.9118500000004</v>
+        <v>-0.002029103103172544</v>
       </c>
       <c r="F3" t="n">
-        <v>46.99999999999994</v>
+        <v>0.03223678043283283</v>
       </c>
     </row>
     <row r="4">
@@ -528,10 +527,10 @@
         <v>0.1371658580794976</v>
       </c>
       <c r="E4" t="n">
-        <v>-101.2436500000003</v>
+        <v>0.0449623639062658</v>
       </c>
       <c r="F4" t="n">
-        <v>91.5</v>
+        <v>0.03182022103806985</v>
       </c>
     </row>
     <row r="5">
@@ -548,10 +547,10 @@
         <v>0.02770246734858188</v>
       </c>
       <c r="E5" t="n">
-        <v>323.7399999999999</v>
+        <v>0.00111889338462199</v>
       </c>
       <c r="F5" t="n">
-        <v>98.19999999999987</v>
+        <v>0.02680658270680768</v>
       </c>
     </row>
     <row r="6">
@@ -568,10 +567,10 @@
         <v>-0.1171769312213392</v>
       </c>
       <c r="E6" t="n">
-        <v>-178.6664000000001</v>
+        <v>0.01624795116064833</v>
       </c>
       <c r="F6" t="n">
-        <v>9.549999999999955</v>
+        <v>0.03473027251594018</v>
       </c>
     </row>
     <row r="7">
@@ -588,10 +587,10 @@
         <v>0.00661811006751281</v>
       </c>
       <c r="E7" t="n">
-        <v>-151.8496000000003</v>
+        <v>0.03475921440839556</v>
       </c>
       <c r="F7" t="n">
-        <v>76.80000000000007</v>
+        <v>0.02358909659669256</v>
       </c>
     </row>
     <row r="8">
@@ -608,10 +607,10 @@
         <v>-0.02030699344170029</v>
       </c>
       <c r="E8" t="n">
-        <v>325.8718500000007</v>
+        <v>0.008002144655363572</v>
       </c>
       <c r="F8" t="n">
-        <v>51.89999999999998</v>
+        <v>0.02541256345373574</v>
       </c>
     </row>
     <row r="9">
@@ -628,10 +627,10 @@
         <v>0.04859007619133476</v>
       </c>
       <c r="E9" t="n">
-        <v>401.3314500000007</v>
+        <v>-0.02295506618020307</v>
       </c>
       <c r="F9" t="n">
-        <v>65.14999999999998</v>
+        <v>0.02096425519313973</v>
       </c>
     </row>
     <row r="10">
@@ -648,10 +647,10 @@
         <v>-0.01795345192947599</v>
       </c>
       <c r="E10" t="n">
-        <v>-922.8700000000008</v>
+        <v>0.0431311139648355</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.350000000000023</v>
+        <v>0.02627876754714131</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +667,10 @@
         <v>-0.03879160474450653</v>
       </c>
       <c r="E11" t="n">
-        <v>182.19555</v>
+        <v>0.01563620100650887</v>
       </c>
       <c r="F11" t="n">
-        <v>8.149999999999977</v>
+        <v>0.02761676999641914</v>
       </c>
     </row>
     <row r="12">
@@ -688,10 +687,10 @@
         <v>-0.03009915344742025</v>
       </c>
       <c r="E12" t="n">
-        <v>1.281900000000753</v>
+        <v>0.009246683545541673</v>
       </c>
       <c r="F12" t="n">
-        <v>13.59999999999997</v>
+        <v>0.02352809572245421</v>
       </c>
     </row>
     <row r="13">
@@ -708,10 +707,10 @@
         <v>0.1344548245098326</v>
       </c>
       <c r="E13" t="n">
-        <v>-89.63370000000073</v>
+        <v>0.02759128430753172</v>
       </c>
       <c r="F13" t="n">
-        <v>3.600000000000023</v>
+        <v>0.02449042541250106</v>
       </c>
     </row>
     <row r="14">
@@ -728,10 +727,10 @@
         <v>0.0376628846679523</v>
       </c>
       <c r="E14" t="n">
-        <v>213.0380499999997</v>
+        <v>-0.01583576597251364</v>
       </c>
       <c r="F14" t="n">
-        <v>17.44999999999999</v>
+        <v>0.02366857969639866</v>
       </c>
     </row>
     <row r="15">
@@ -748,10 +747,10 @@
         <v>0.02363649959595596</v>
       </c>
       <c r="E15" t="n">
-        <v>-786.8128499999997</v>
+        <v>0.03771630662183865</v>
       </c>
       <c r="F15" t="n">
-        <v>-37.54999999999995</v>
+        <v>0.02476922226445296</v>
       </c>
     </row>
     <row r="16">
@@ -768,10 +767,10 @@
         <v>-0.07467375921818978</v>
       </c>
       <c r="E16" t="n">
-        <v>157.8053000000003</v>
+        <v>0.0212281547619757</v>
       </c>
       <c r="F16" t="n">
-        <v>-42.60000000000002</v>
+        <v>0.02962840496456763</v>
       </c>
     </row>
     <row r="17">
@@ -788,10 +787,10 @@
         <v>-0.01738805744181866</v>
       </c>
       <c r="E17" t="n">
-        <v>-869.7074000000003</v>
+        <v>0.02435201437405993</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.399999999999977</v>
+        <v>0.02667078027158162</v>
       </c>
     </row>
     <row r="18">
@@ -808,10 +807,10 @@
         <v>0.05182144040911535</v>
       </c>
       <c r="E18" t="n">
-        <v>454.8340500000004</v>
+        <v>-0.03241681557203235</v>
       </c>
       <c r="F18" t="n">
-        <v>57.55000000000007</v>
+        <v>0.02545724572425421</v>
       </c>
     </row>
     <row r="19">
@@ -828,10 +827,10 @@
         <v>0.09806127806485718</v>
       </c>
       <c r="E19" t="n">
-        <v>-1019.4983</v>
+        <v>0.03671800511293648</v>
       </c>
       <c r="F19" t="n">
-        <v>60.14999999999998</v>
+        <v>0.02111703686470855</v>
       </c>
     </row>
     <row r="20">
@@ -848,10 +847,10 @@
         <v>-0.01446288915487031</v>
       </c>
       <c r="E20" t="n">
-        <v>-92.7217</v>
+        <v>0.009848673695896946</v>
       </c>
       <c r="F20" t="n">
-        <v>36.69999999999999</v>
+        <v>0.02856545756945635</v>
       </c>
     </row>
     <row r="21">
@@ -868,10 +867,10 @@
         <v>0.06887088332426906</v>
       </c>
       <c r="E21" t="n">
-        <v>-1003.63655</v>
+        <v>0.04424696068729894</v>
       </c>
       <c r="F21" t="n">
-        <v>105.7500000000001</v>
+        <v>0.02960738550364275</v>
       </c>
     </row>
     <row r="22">
@@ -888,10 +887,10 @@
         <v>0.1095961634259131</v>
       </c>
       <c r="E22" t="n">
-        <v>-478.76165</v>
+        <v>0.02270385032284242</v>
       </c>
       <c r="F22" t="n">
-        <v>173.65</v>
+        <v>0.0283716561333755</v>
       </c>
     </row>
     <row r="23">
@@ -908,10 +907,10 @@
         <v>-0.04806188111191549</v>
       </c>
       <c r="E23" t="n">
-        <v>-564.5013499999995</v>
+        <v>0.05185614360392528</v>
       </c>
       <c r="F23" t="n">
-        <v>218.5500000000001</v>
+        <v>0.02699300970868189</v>
       </c>
     </row>
     <row r="24">
@@ -928,10 +927,10 @@
         <v>0.05409223451025266</v>
       </c>
       <c r="E24" t="n">
-        <v>-41.88145000000001</v>
+        <v>0.03160152715875587</v>
       </c>
       <c r="F24" t="n">
-        <v>101.2999999999999</v>
+        <v>0.02423377748270406</v>
       </c>
     </row>
     <row r="25">
@@ -948,10 +947,10 @@
         <v>0.1006041904012183</v>
       </c>
       <c r="E25" t="n">
-        <v>152.33235</v>
+        <v>-0.003558654240088645</v>
       </c>
       <c r="F25" t="n">
-        <v>205.85</v>
+        <v>0.01501348217415067</v>
       </c>
     </row>
     <row r="26">
@@ -968,10 +967,10 @@
         <v>-0.01246229960780269</v>
       </c>
       <c r="E26" t="n">
-        <v>-632.8722500000003</v>
+        <v>0.01772063925540751</v>
       </c>
       <c r="F26" t="n">
-        <v>149.9</v>
+        <v>0.01665947840096368</v>
       </c>
     </row>
     <row r="27">
@@ -988,10 +987,10 @@
         <v>0.02636626290118887</v>
       </c>
       <c r="E27" t="n">
-        <v>-44.4852499999996</v>
+        <v>0.007489646877800266</v>
       </c>
       <c r="F27" t="n">
-        <v>105.8</v>
+        <v>0.02050410081181211</v>
       </c>
     </row>
     <row r="28">
@@ -1008,10 +1007,10 @@
         <v>-0.00112163391236105</v>
       </c>
       <c r="E28" t="n">
-        <v>-1387.440050000001</v>
+        <v>0.03735926620018384</v>
       </c>
       <c r="F28" t="n">
-        <v>79.49999999999994</v>
+        <v>0.01789894297430882</v>
       </c>
     </row>
     <row r="29">
@@ -1028,10 +1027,10 @@
         <v>-0.01809708835261043</v>
       </c>
       <c r="E29" t="n">
-        <v>133.2856499999996</v>
+        <v>0.004333991515078062</v>
       </c>
       <c r="F29" t="n">
-        <v>178.9999999999999</v>
+        <v>0.01937097045222255</v>
       </c>
     </row>
     <row r="30">
@@ -1048,10 +1047,10 @@
         <v>0.07612045596044992</v>
       </c>
       <c r="E30" t="n">
-        <v>-658.6425499999992</v>
+        <v>0.01400247172769693</v>
       </c>
       <c r="F30" t="n">
-        <v>455.2500000000001</v>
+        <v>0.01152759539744967</v>
       </c>
     </row>
     <row r="31">
@@ -1068,10 +1067,10 @@
         <v>0.0003858925022325573</v>
       </c>
       <c r="E31" t="n">
-        <v>669.2207999999999</v>
+        <v>-0.0005548634292377036</v>
       </c>
       <c r="F31" t="n">
-        <v>205</v>
+        <v>0.0159192966426961</v>
       </c>
     </row>
     <row r="32">
@@ -1088,10 +1087,10 @@
         <v>0.05934756486851098</v>
       </c>
       <c r="E32" t="n">
-        <v>979.1836999999996</v>
+        <v>-0.1671054616908854</v>
       </c>
       <c r="F32" t="n">
-        <v>280.8499999999999</v>
+        <v>0.01308207696275365</v>
       </c>
     </row>
     <row r="33">
@@ -1108,10 +1107,10 @@
         <v>-0.06602235215306444</v>
       </c>
       <c r="E33" t="n">
-        <v>125.3512000000002</v>
+        <v>0.01948866387560347</v>
       </c>
       <c r="F33" t="n">
-        <v>191.3</v>
+        <v>0.01936662152968065</v>
       </c>
     </row>
     <row r="34">
@@ -1128,10 +1127,10 @@
         <v>0.04678497219954895</v>
       </c>
       <c r="E34" t="n">
-        <v>103.8965999999994</v>
+        <v>0.01288648641847573</v>
       </c>
       <c r="F34" t="n">
-        <v>146.5</v>
+        <v>0.02049209050321166</v>
       </c>
     </row>
     <row r="35">
@@ -1148,10 +1147,10 @@
         <v>0.04509444567704506</v>
       </c>
       <c r="E35" t="n">
-        <v>-900.0853999999994</v>
+        <v>0.0276067694100449</v>
       </c>
       <c r="F35" t="n">
-        <v>100.25</v>
+        <v>0.02667165393609489</v>
       </c>
     </row>
     <row r="36">
@@ -1168,10 +1167,10 @@
         <v>0.05550217337517682</v>
       </c>
       <c r="E36" t="n">
-        <v>-340.37775</v>
+        <v>-0.09243046725435594</v>
       </c>
       <c r="F36" t="n">
-        <v>138.3499999999999</v>
+        <v>0.02035833408895865</v>
       </c>
     </row>
     <row r="37">
@@ -1188,10 +1187,10 @@
         <v>0.04460250478935919</v>
       </c>
       <c r="E37" t="n">
-        <v>406.1167000000013</v>
+        <v>-0.1479715131579492</v>
       </c>
       <c r="F37" t="n">
-        <v>378.2499999999999</v>
+        <v>0.01972908381922926</v>
       </c>
     </row>
     <row r="38">
@@ -1208,10 +1207,10 @@
         <v>-0.01658773537449806</v>
       </c>
       <c r="E38" t="n">
-        <v>-1189.102599999999</v>
+        <v>0.008678996371425239</v>
       </c>
       <c r="F38" t="n">
-        <v>552.6999999999999</v>
+        <v>0.01870066149388908</v>
       </c>
     </row>
     <row r="39">
@@ -1228,10 +1227,10 @@
         <v>0.08871702930446276</v>
       </c>
       <c r="E39" t="n">
-        <v>-946.8341500000016</v>
+        <v>0.04474093621508451</v>
       </c>
       <c r="F39" t="n">
-        <v>707.1999999999998</v>
+        <v>0.0252127870891084</v>
       </c>
     </row>
     <row r="40">
@@ -1248,10 +1247,10 @@
         <v>0.001261511376158382</v>
       </c>
       <c r="E40" t="n">
-        <v>346.2555000000014</v>
+        <v>0.01077104813172863</v>
       </c>
       <c r="F40" t="n">
-        <v>738.45</v>
+        <v>0.01911966920170401</v>
       </c>
     </row>
     <row r="41">
@@ -1268,10 +1267,10 @@
         <v>-0.007487429266387469</v>
       </c>
       <c r="E41" t="n">
-        <v>261.0797500000015</v>
+        <v>0.01592564515786086</v>
       </c>
       <c r="F41" t="n">
-        <v>549</v>
+        <v>0.02465177692841308</v>
       </c>
     </row>
     <row r="42">
@@ -1288,10 +1287,10 @@
         <v>0.02985282700579076</v>
       </c>
       <c r="E42" t="n">
-        <v>603.6712499999993</v>
+        <v>-0.004269078906483592</v>
       </c>
       <c r="F42" t="n">
-        <v>501.3</v>
+        <v>0.02155903417696176</v>
       </c>
     </row>
     <row r="43">
@@ -1308,10 +1307,10 @@
         <v>0.004695592497180091</v>
       </c>
       <c r="E43" t="n">
-        <v>776.2873999999986</v>
+        <v>-0.00541116959190048</v>
       </c>
       <c r="F43" t="n">
-        <v>628.65</v>
+        <v>0.01590182604721685</v>
       </c>
     </row>
     <row r="44">
@@ -1328,10 +1327,10 @@
         <v>-0.02203570417243978</v>
       </c>
       <c r="E44" t="n">
-        <v>862.7744500000015</v>
+        <v>-0.08853478087983832</v>
       </c>
       <c r="F44" t="n">
-        <v>548.3</v>
+        <v>0.02189748076062416</v>
       </c>
     </row>
     <row r="45">
@@ -1348,10 +1347,10 @@
         <v>0.01876298627840453</v>
       </c>
       <c r="E45" t="n">
-        <v>-417.3485499999986</v>
+        <v>0.0167630112388567</v>
       </c>
       <c r="F45" t="n">
-        <v>527.9</v>
+        <v>0.02123815348170808</v>
       </c>
     </row>
     <row r="46">
@@ -1368,10 +1367,10 @@
         <v>0.001318367582391504</v>
       </c>
       <c r="E46" t="n">
-        <v>865.1159500000015</v>
+        <v>-0.001929287068613894</v>
       </c>
       <c r="F46" t="n">
-        <v>633.3500000000001</v>
+        <v>0.02568566069089314</v>
       </c>
     </row>
     <row r="47">
@@ -1388,10 +1387,10 @@
         <v>0.03274902259067773</v>
       </c>
       <c r="E47" t="n">
-        <v>969.0162499999992</v>
+        <v>-0.01640278974348908</v>
       </c>
       <c r="F47" t="n">
-        <v>727.5</v>
+        <v>0.0210071680462664</v>
       </c>
     </row>
     <row r="48">
@@ -1408,10 +1407,10 @@
         <v>0.02779770509159487</v>
       </c>
       <c r="E48" t="n">
-        <v>586.9611499999992</v>
+        <v>0.001565738901931665</v>
       </c>
       <c r="F48" t="n">
-        <v>540.5999999999999</v>
+        <v>0.02280441712518076</v>
       </c>
     </row>
     <row r="49">
@@ -1428,10 +1427,10 @@
         <v>0.01509231799536219</v>
       </c>
       <c r="E49" t="n">
-        <v>668.3233500000008</v>
+        <v>-0.007082203313821228</v>
       </c>
       <c r="F49" t="n">
-        <v>555.55</v>
+        <v>0.01802970952027205</v>
       </c>
     </row>
     <row r="50">
@@ -1448,10 +1447,10 @@
         <v>0.08712165093098106</v>
       </c>
       <c r="E50" t="n">
-        <v>-952.1359499999993</v>
+        <v>0.02067885529569518</v>
       </c>
       <c r="F50" t="n">
-        <v>373.9499999999999</v>
+        <v>0.01851937565571424</v>
       </c>
     </row>
     <row r="51">
@@ -1468,10 +1467,10 @@
         <v>0.05741411043782189</v>
       </c>
       <c r="E51" t="n">
-        <v>-1122.438199999999</v>
+        <v>0.02190430644964603</v>
       </c>
       <c r="F51" t="n">
-        <v>498.35</v>
+        <v>0.02189099746626497</v>
       </c>
     </row>
     <row r="52">
@@ -1488,10 +1487,10 @@
         <v>0.031868726793491</v>
       </c>
       <c r="E52" t="n">
-        <v>-1721.00195</v>
+        <v>0.02650119729121575</v>
       </c>
       <c r="F52" t="n">
-        <v>522.7</v>
+        <v>0.03811347922933105</v>
       </c>
     </row>
     <row r="53">
@@ -1508,10 +1507,10 @@
         <v>-0.004744980239466087</v>
       </c>
       <c r="E53" t="n">
-        <v>94.52859999999862</v>
+        <v>0.03242736596761696</v>
       </c>
       <c r="F53" t="n">
-        <v>504.5500000000001</v>
+        <v>0.02470261187169409</v>
       </c>
     </row>
     <row r="54">
@@ -1528,10 +1527,10 @@
         <v>0.05101994626122998</v>
       </c>
       <c r="E54" t="n">
-        <v>47.41120000000074</v>
+        <v>0.01315882558082078</v>
       </c>
       <c r="F54" t="n">
-        <v>489.05</v>
+        <v>0.02645531298276309</v>
       </c>
     </row>
     <row r="55">
@@ -1548,10 +1547,10 @@
         <v>-0.04546793773384048</v>
       </c>
       <c r="E55" t="n">
-        <v>157.2363999999985</v>
+        <v>0.01623049617640773</v>
       </c>
       <c r="F55" t="n">
-        <v>483.4</v>
+        <v>0.0278913724505703</v>
       </c>
     </row>
     <row r="56">
@@ -1568,10 +1567,10 @@
         <v>0.06903684351173744</v>
       </c>
       <c r="E56" t="n">
-        <v>-532.5037999999993</v>
+        <v>0.03314892987078449</v>
       </c>
       <c r="F56" t="n">
-        <v>416.05</v>
+        <v>0.02771430283709075</v>
       </c>
     </row>
     <row r="57">
@@ -1588,10 +1587,10 @@
         <v>0.06765887902368437</v>
       </c>
       <c r="E57" t="n">
-        <v>466.057</v>
+        <v>-0.01567494416358683</v>
       </c>
       <c r="F57" t="n">
-        <v>457.05</v>
+        <v>0.02869663112081695</v>
       </c>
     </row>
     <row r="58">
@@ -1608,10 +1607,10 @@
         <v>0.09273569691961286</v>
       </c>
       <c r="E58" t="n">
-        <v>473.9684000000014</v>
+        <v>0.006639324118831089</v>
       </c>
       <c r="F58" t="n">
-        <v>385.9499999999999</v>
+        <v>0.02509731092006742</v>
       </c>
     </row>
     <row r="59">
@@ -1628,10 +1627,10 @@
         <v>0.01738427452941109</v>
       </c>
       <c r="E59" t="n">
-        <v>483.4746500000016</v>
+        <v>-0.02441695178065836</v>
       </c>
       <c r="F59" t="n">
-        <v>558.6000000000001</v>
+        <v>0.02427616259615226</v>
       </c>
     </row>
     <row r="60">
@@ -1648,10 +1647,10 @@
         <v>0.1384754615165412</v>
       </c>
       <c r="E60" t="n">
-        <v>-582.9337000000014</v>
+        <v>0.03487742670431045</v>
       </c>
       <c r="F60" t="n">
-        <v>444.8000000000001</v>
+        <v>0.02664241203260778</v>
       </c>
     </row>
     <row r="61">
@@ -1668,10 +1667,10 @@
         <v>0.08771606346848371</v>
       </c>
       <c r="E61" t="n">
-        <v>531.0273500000015</v>
+        <v>0.0005130552592507859</v>
       </c>
       <c r="F61" t="n">
-        <v>544.85</v>
+        <v>0.02464887203794765</v>
       </c>
     </row>
     <row r="62">
@@ -1688,10 +1687,10 @@
         <v>0.04377320192692959</v>
       </c>
       <c r="E62" t="n">
-        <v>-885.3281500000007</v>
+        <v>0.03808025588710749</v>
       </c>
       <c r="F62" t="n">
-        <v>376.65</v>
+        <v>0.02261374033809851</v>
       </c>
     </row>
     <row r="63">
@@ -1708,10 +1707,10 @@
         <v>0.06993010221756966</v>
       </c>
       <c r="E63" t="n">
-        <v>-697.5152500000014</v>
+        <v>0.01705883446739363</v>
       </c>
       <c r="F63" t="n">
-        <v>434.5</v>
+        <v>0.0269829650209117</v>
       </c>
     </row>
     <row r="64">
@@ -1728,10 +1727,10 @@
         <v>0.04630205232998304</v>
       </c>
       <c r="E64" t="n">
-        <v>-23.09715000000069</v>
+        <v>0.01777613668565812</v>
       </c>
       <c r="F64" t="n">
-        <v>454.7</v>
+        <v>0.02657418283293823</v>
       </c>
     </row>
     <row r="65">
@@ -1748,10 +1747,10 @@
         <v>0.005839408428000769</v>
       </c>
       <c r="E65" t="n">
-        <v>-141.9381499999992</v>
+        <v>0.02289622574530907</v>
       </c>
       <c r="F65" t="n">
-        <v>336.0500000000001</v>
+        <v>0.02768614042580064</v>
       </c>
     </row>
     <row r="66">
@@ -1768,10 +1767,10 @@
         <v>0.10466641584713</v>
       </c>
       <c r="E66" t="n">
-        <v>-340.2537999999992</v>
+        <v>0.009838987711311961</v>
       </c>
       <c r="F66" t="n">
-        <v>323.95</v>
+        <v>0.03066747051779834</v>
       </c>
     </row>
     <row r="67">
@@ -1788,10 +1787,10 @@
         <v>0.2214603650628109</v>
       </c>
       <c r="E67" t="n">
-        <v>591.2319000000008</v>
+        <v>-0.0005451937765121664</v>
       </c>
       <c r="F67" t="n">
-        <v>390.95</v>
+        <v>0.02856799191654454</v>
       </c>
     </row>
     <row r="68">
@@ -1808,10 +1807,10 @@
         <v>0.01056285790285609</v>
       </c>
       <c r="E68" t="n">
-        <v>-1089.677050000002</v>
+        <v>0.03969188874109649</v>
       </c>
       <c r="F68" t="n">
-        <v>375.6</v>
+        <v>0.02528905832465992</v>
       </c>
     </row>
     <row r="69">
@@ -1828,10 +1827,10 @@
         <v>-0.003723870376525348</v>
       </c>
       <c r="E69" t="n">
-        <v>66.14340000000146</v>
+        <v>0.01983370811418835</v>
       </c>
       <c r="F69" t="n">
-        <v>401.25</v>
+        <v>0.03108443776654809</v>
       </c>
     </row>
     <row r="70">
@@ -1848,10 +1847,10 @@
         <v>0.02891952805269861</v>
       </c>
       <c r="E70" t="n">
-        <v>325.5723000000014</v>
+        <v>-0.01489092080027172</v>
       </c>
       <c r="F70" t="n">
-        <v>411.25</v>
+        <v>0.01848124038780443</v>
       </c>
     </row>
     <row r="71">
@@ -1868,10 +1867,10 @@
         <v>-0.05752183434103004</v>
       </c>
       <c r="E71" t="n">
-        <v>-387.8399500000007</v>
+        <v>-0.00489801746103714</v>
       </c>
       <c r="F71" t="n">
-        <v>392.1999999999999</v>
+        <v>0.02275806511367091</v>
       </c>
     </row>
     <row r="72">
@@ -1888,10 +1887,10 @@
         <v>0.03653000555995452</v>
       </c>
       <c r="E72" t="n">
-        <v>395.1830499999986</v>
+        <v>0.02028769573917128</v>
       </c>
       <c r="F72" t="n">
-        <v>403.55</v>
+        <v>0.04529918936063887</v>
       </c>
     </row>
     <row r="73">
@@ -1908,10 +1907,10 @@
         <v>0.03106944915069649</v>
       </c>
       <c r="E73" t="n">
-        <v>532.2239000000001</v>
+        <v>0.01483432325342854</v>
       </c>
       <c r="F73" t="n">
-        <v>484.15</v>
+        <v>0.02490932370937824</v>
       </c>
     </row>
     <row r="74">
@@ -1928,10 +1927,10 @@
         <v>0.009052338068577843</v>
       </c>
       <c r="E74" t="n">
-        <v>-1331.570700000002</v>
+        <v>0.02038037710368405</v>
       </c>
       <c r="F74" t="n">
-        <v>337.5499999999999</v>
+        <v>0.02753148119475474</v>
       </c>
     </row>
     <row r="75">
@@ -1948,10 +1947,10 @@
         <v>0.03729324264567013</v>
       </c>
       <c r="E75" t="n">
-        <v>-1464.557649999999</v>
+        <v>0.02921341348176286</v>
       </c>
       <c r="F75" t="n">
-        <v>640.7</v>
+        <v>0.03164857926614643</v>
       </c>
     </row>
     <row r="76">
@@ -1968,10 +1967,10 @@
         <v>-0.02888921042969995</v>
       </c>
       <c r="E76" t="n">
-        <v>139.2439499999985</v>
+        <v>-0.01738237058034581</v>
       </c>
       <c r="F76" t="n">
-        <v>590.8</v>
+        <v>0.02280951747119085</v>
       </c>
     </row>
     <row r="77">
@@ -1988,10 +1987,10 @@
         <v>0.01582799101997694</v>
       </c>
       <c r="E77" t="n">
-        <v>172.0189499999986</v>
+        <v>0.0001139602306296245</v>
       </c>
       <c r="F77" t="n">
-        <v>598.3000000000001</v>
+        <v>0.02151239802917421</v>
       </c>
     </row>
     <row r="78">
@@ -2008,10 +2007,10 @@
         <v>0.03423373591788473</v>
       </c>
       <c r="E78" t="n">
-        <v>-1131.856500000001</v>
+        <v>0.01889290165397319</v>
       </c>
       <c r="F78" t="n">
-        <v>469.3499999999999</v>
+        <v>0.0353799779116131</v>
       </c>
     </row>
     <row r="79">
@@ -2028,10 +2027,10 @@
         <v>0.03816612902826085</v>
       </c>
       <c r="E79" t="n">
-        <v>12.79064999999862</v>
+        <v>0.02378303048856758</v>
       </c>
       <c r="F79" t="n">
-        <v>379.6500000000001</v>
+        <v>0.03279857019641914</v>
       </c>
     </row>
     <row r="80">
@@ -2048,10 +2047,10 @@
         <v>0.08714434051592648</v>
       </c>
       <c r="E80" t="n">
-        <v>-359.5045000000015</v>
+        <v>0.0135333833917178</v>
       </c>
       <c r="F80" t="n">
-        <v>435.8</v>
+        <v>0.02936934533615493</v>
       </c>
     </row>
     <row r="81">
@@ -2068,10 +2067,10 @@
         <v>-0.02111489435669121</v>
       </c>
       <c r="E81" t="n">
-        <v>92.49810000000005</v>
+        <v>-0.04277484528734653</v>
       </c>
       <c r="F81" t="n">
-        <v>422.0500000000001</v>
+        <v>0.0406999759181548</v>
       </c>
     </row>
     <row r="82">
@@ -2088,10 +2087,10 @@
         <v>0.02298793344420165</v>
       </c>
       <c r="E82" t="n">
-        <v>-2343.092949999999</v>
+        <v>0.05860371494636438</v>
       </c>
       <c r="F82" t="n">
-        <v>355.2</v>
+        <v>0.03746483146509851</v>
       </c>
     </row>
     <row r="83">
@@ -2108,10 +2107,10 @@
         <v>0.04836701969022941</v>
       </c>
       <c r="E83" t="n">
-        <v>832.8449500000006</v>
+        <v>-0.005452379606033245</v>
       </c>
       <c r="F83" t="n">
-        <v>672.0999999999999</v>
+        <v>0.02733589473660849</v>
       </c>
     </row>
     <row r="84">
@@ -2128,10 +2127,10 @@
         <v>0.06104734922522199</v>
       </c>
       <c r="E84" t="n">
-        <v>-834.3045499999986</v>
+        <v>0.01357676239571572</v>
       </c>
       <c r="F84" t="n">
-        <v>859.3999999999999</v>
+        <v>0.03131564204132893</v>
       </c>
     </row>
     <row r="85">
@@ -2148,10 +2147,10 @@
         <v>0.03741678664405574</v>
       </c>
       <c r="E85" t="n">
-        <v>818.6193499999993</v>
+        <v>0.006952528202689698</v>
       </c>
       <c r="F85" t="n">
-        <v>540.9</v>
+        <v>0.02581345818368376</v>
       </c>
     </row>
     <row r="86">
@@ -2168,10 +2167,10 @@
         <v>-0.01341106976273277</v>
       </c>
       <c r="E86" t="n">
-        <v>465.8833999999993</v>
+        <v>0.00349909021148927</v>
       </c>
       <c r="F86" t="n">
-        <v>489.8</v>
+        <v>0.03202522605383333</v>
       </c>
     </row>
     <row r="87">
@@ -2188,10 +2187,10 @@
         <v>0.04937245072830745</v>
       </c>
       <c r="E87" t="n">
-        <v>288.8291500000015</v>
+        <v>0.02289426716721118</v>
       </c>
       <c r="F87" t="n">
-        <v>499.35</v>
+        <v>0.0322437695233089</v>
       </c>
     </row>
     <row r="88">
@@ -2208,10 +2207,10 @@
         <v>0.02386005111938157</v>
       </c>
       <c r="E88" t="n">
-        <v>-2589.062199999999</v>
+        <v>0.02649116875477947</v>
       </c>
       <c r="F88" t="n">
-        <v>630.55</v>
+        <v>0.02219865106677538</v>
       </c>
     </row>
     <row r="89">
@@ -2228,10 +2227,10 @@
         <v>0.007418070190867463</v>
       </c>
       <c r="E89" t="n">
-        <v>278.7480999999985</v>
+        <v>0.0207585487548</v>
       </c>
       <c r="F89" t="n">
-        <v>732.8999999999999</v>
+        <v>0.0226771149014531</v>
       </c>
     </row>
     <row r="90">
@@ -2248,10 +2247,10 @@
         <v>0.002530635824115981</v>
       </c>
       <c r="E90" t="n">
-        <v>-37.43364999999852</v>
+        <v>-0.01784076212192463</v>
       </c>
       <c r="F90" t="n">
-        <v>1398.65</v>
+        <v>0.01119500339328811</v>
       </c>
     </row>
     <row r="91">
@@ -2268,10 +2267,10 @@
         <v>0.01292284913751838</v>
       </c>
       <c r="E91" t="n">
-        <v>767.8994</v>
+        <v>0.007261824166318508</v>
       </c>
       <c r="F91" t="n">
-        <v>652.6500000000001</v>
+        <v>0.0203916163110888</v>
       </c>
     </row>
     <row r="92">
@@ -2288,10 +2287,10 @@
         <v>0.005552448296691162</v>
       </c>
       <c r="E92" t="n">
-        <v>-1271.871000000001</v>
+        <v>0.02908557706228086</v>
       </c>
       <c r="F92" t="n">
-        <v>599.15</v>
+        <v>0.01992237487165914</v>
       </c>
     </row>
     <row r="93">
@@ -2308,10 +2307,10 @@
         <v>0.05243835882111712</v>
       </c>
       <c r="E93" t="n">
-        <v>-774.8155499999991</v>
+        <v>0.0319383303936022</v>
       </c>
       <c r="F93" t="n">
-        <v>546.5500000000001</v>
+        <v>0.02983856478462726</v>
       </c>
     </row>
     <row r="94">
@@ -2328,10 +2327,10 @@
         <v>0.023678348474836</v>
       </c>
       <c r="E94" t="n">
-        <v>-1315.366349999998</v>
+        <v>-0.06232603909170688</v>
       </c>
       <c r="F94" t="n">
-        <v>730.1000000000001</v>
+        <v>0.02216859616500183</v>
       </c>
     </row>
     <row r="95">
@@ -2348,10 +2347,10 @@
         <v>0.06338686286225982</v>
       </c>
       <c r="E95" t="n">
-        <v>1438.3808</v>
+        <v>-0.01565912280466333</v>
       </c>
       <c r="F95" t="n">
-        <v>1071.8</v>
+        <v>0.0275988529729572</v>
       </c>
     </row>
     <row r="96">
@@ -2368,10 +2367,10 @@
         <v>0.0172286450261873</v>
       </c>
       <c r="E96" t="n">
-        <v>-667.8019000000007</v>
+        <v>0.02551797408387158</v>
       </c>
       <c r="F96" t="n">
-        <v>968.05</v>
+        <v>0.02328350635179936</v>
       </c>
     </row>
     <row r="97">
@@ -2388,10 +2387,10 @@
         <v>0.008765985996732959</v>
       </c>
       <c r="E97" t="n">
-        <v>978.1981000000006</v>
+        <v>-0.00660298297501662</v>
       </c>
       <c r="F97" t="n">
-        <v>746.3499999999999</v>
+        <v>0.0224753269787069</v>
       </c>
     </row>
     <row r="98">
@@ -2408,10 +2407,10 @@
         <v>-0.02894459913414084</v>
       </c>
       <c r="E98" t="n">
-        <v>-262.0382499999985</v>
+        <v>0.02123234832170799</v>
       </c>
       <c r="F98" t="n">
-        <v>759.3000000000001</v>
+        <v>0.01903324310570809</v>
       </c>
     </row>
     <row r="99">
@@ -2428,10 +2427,10 @@
         <v>0.04269042701338093</v>
       </c>
       <c r="E99" t="n">
-        <v>905.5425999999999</v>
+        <v>0.004468575587932649</v>
       </c>
       <c r="F99" t="n">
-        <v>983.3499999999999</v>
+        <v>0.01833464473200833</v>
       </c>
     </row>
     <row r="100">
@@ -2448,10 +2447,10 @@
         <v>0.01256207687785134</v>
       </c>
       <c r="E100" t="n">
-        <v>-9184.547049999999</v>
+        <v>0.02024790317596747</v>
       </c>
       <c r="F100" t="n">
-        <v>810.5500000000002</v>
+        <v>0.02332690653295372</v>
       </c>
     </row>
     <row r="101">
@@ -2468,10 +2467,10 @@
         <v>0.1333189741868956</v>
       </c>
       <c r="E101" t="n">
-        <v>2234.8924</v>
+        <v>0.01820297305930584</v>
       </c>
       <c r="F101" t="n">
-        <v>3312.85</v>
+        <v>0.04182490788222207</v>
       </c>
     </row>
     <row r="102">
@@ -2488,10 +2487,10 @@
         <v>0.07417012780935794</v>
       </c>
       <c r="E102" t="n">
-        <v>111.9595499999994</v>
+        <v>0.003540490628432128</v>
       </c>
       <c r="F102" t="n">
-        <v>1994.8</v>
+        <v>0.005319515604586211</v>
       </c>
     </row>
     <row r="103">
@@ -2508,10 +2507,10 @@
         <v>0.01456090083164365</v>
       </c>
       <c r="E103" t="n">
-        <v>-635.4137000000017</v>
+        <v>0.0491477070301557</v>
       </c>
       <c r="F103" t="n">
-        <v>1287.5</v>
+        <v>0.02796260693928249</v>
       </c>
     </row>
     <row r="104">
@@ -2528,10 +2527,10 @@
         <v>0.08485416631475363</v>
       </c>
       <c r="E104" t="n">
-        <v>2069.951400000001</v>
+        <v>0.01297606334954908</v>
       </c>
       <c r="F104" t="n">
-        <v>1781.35</v>
+        <v>0.02505163177417352</v>
       </c>
     </row>
     <row r="105">
@@ -2548,10 +2547,10 @@
         <v>0.07597250231615406</v>
       </c>
       <c r="E105" t="n">
-        <v>-335.3408499999987</v>
+        <v>0.01977915825327004</v>
       </c>
       <c r="F105" t="n">
-        <v>1281.65</v>
+        <v>0.03057425513933097</v>
       </c>
     </row>
     <row r="106">
@@ -2568,10 +2567,10 @@
         <v>0.01918005658315116</v>
       </c>
       <c r="E106" t="n">
-        <v>-1702.833150000001</v>
+        <v>0.02252703736878468</v>
       </c>
       <c r="F106" t="n">
-        <v>1054.95</v>
+        <v>0.02260840517659857</v>
       </c>
     </row>
     <row r="107">
@@ -2588,10 +2587,10 @@
         <v>0.02938108584779097</v>
       </c>
       <c r="E107" t="n">
-        <v>-1785.66035</v>
+        <v>0.01540276123770702</v>
       </c>
       <c r="F107" t="n">
-        <v>1366.95</v>
+        <v>0.0179868399792798</v>
       </c>
     </row>
     <row r="108">
@@ -2608,10 +2607,10 @@
         <v>0.04084905791159493</v>
       </c>
       <c r="E108" t="n">
-        <v>-3392.26785</v>
+        <v>0.01451473846812912</v>
       </c>
       <c r="F108" t="n">
-        <v>1531.55</v>
+        <v>0.01774714418389588</v>
       </c>
     </row>
     <row r="109">
@@ -2628,10 +2627,10 @@
         <v>0.03204754958110061</v>
       </c>
       <c r="E109" t="n">
-        <v>313.2870000000009</v>
+        <v>0.02014932081097191</v>
       </c>
       <c r="F109" t="n">
-        <v>1616.9</v>
+        <v>0.01698961848418937</v>
       </c>
     </row>
     <row r="110">
@@ -2648,10 +2647,10 @@
         <v>0.01124048738709984</v>
       </c>
       <c r="E110" t="n">
-        <v>-28526.04015</v>
+        <v>0.01635012387407697</v>
       </c>
       <c r="F110" t="n">
-        <v>1393.95</v>
+        <v>0.01831022754942389</v>
       </c>
     </row>
   </sheetData>
@@ -19351,7 +19350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19367,37 +19366,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>NSEBANK Index</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AXSB IS Equity</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HDFCB IS Equity</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ICICIBC IS Equity</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>KMB IS Equity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SBIN IS Equity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>IIB IS Equity</t>
+          <t>Options_PNL</t>
         </is>
       </c>
     </row>
@@ -19406,25 +19375,7 @@
         <v>40906</v>
       </c>
       <c r="B2" t="n">
-        <v>9856.6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1063.65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>490.2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>880.05</v>
-      </c>
-      <c r="F2" t="n">
-        <v>495.55</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2058</v>
-      </c>
-      <c r="H2" t="n">
-        <v>295.8</v>
+        <v>-0.1230601902854709</v>
       </c>
     </row>
     <row r="3">
@@ -19432,25 +19383,7 @@
         <v>40933</v>
       </c>
       <c r="B3" t="n">
-        <v>10713.35</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1217.7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>533.15</v>
-      </c>
-      <c r="E3" t="n">
-        <v>943.95</v>
-      </c>
-      <c r="F3" t="n">
-        <v>567.45</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2260.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>313.55</v>
+        <v>-0.03419536733221708</v>
       </c>
     </row>
     <row r="4">
@@ -19458,25 +19391,7 @@
         <v>40962</v>
       </c>
       <c r="B4" t="n">
-        <v>9927.65</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1122.05</v>
-      </c>
-      <c r="D4" t="n">
-        <v>510.1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>855.75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>524.6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2061.35</v>
-      </c>
-      <c r="H4" t="n">
-        <v>307.05</v>
+        <v>0.03860114169285914</v>
       </c>
     </row>
     <row r="5">
@@ -19484,25 +19399,7 @@
         <v>40997</v>
       </c>
       <c r="B5" t="n">
-        <v>10128</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1086.65</v>
-      </c>
-      <c r="D5" t="n">
-        <v>540.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>841.45</v>
-      </c>
-      <c r="F5" t="n">
-        <v>582.85</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2162.35</v>
-      </c>
-      <c r="H5" t="n">
-        <v>332.85</v>
+        <v>0.03809138939324436</v>
       </c>
     </row>
     <row r="6">
@@ -19510,25 +19407,7 @@
         <v>41025</v>
       </c>
       <c r="B6" t="n">
-        <v>9441</v>
-      </c>
-      <c r="C6" t="n">
-        <v>970.95</v>
-      </c>
-      <c r="D6" t="n">
-        <v>506.2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>783.25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>563.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2056.05</v>
-      </c>
-      <c r="H6" t="n">
-        <v>298.4</v>
+        <v>-0.0004730204033327153</v>
       </c>
     </row>
     <row r="7">
@@ -19536,25 +19415,7 @@
         <v>41060</v>
       </c>
       <c r="B7" t="n">
-        <v>10003.85</v>
-      </c>
-      <c r="C7" t="n">
-        <v>978.6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>548.5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>856.95</v>
-      </c>
-      <c r="F7" t="n">
-        <v>575.85</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2098.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>328.2</v>
+        <v>0.02165149276873871</v>
       </c>
     </row>
     <row r="8">
@@ -19562,25 +19423,7 @@
         <v>41088</v>
       </c>
       <c r="B8" t="n">
-        <v>10083.8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1002.2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>565.8</v>
-      </c>
-      <c r="E8" t="n">
-        <v>906.75</v>
-      </c>
-      <c r="F8" t="n">
-        <v>541.4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2017.4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>322.95</v>
+        <v>0.04451308794219822</v>
       </c>
     </row>
     <row r="9">
@@ -19588,25 +19431,7 @@
         <v>41116</v>
       </c>
       <c r="B9" t="n">
-        <v>10085.2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1013.25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>595.9</v>
-      </c>
-      <c r="E9" t="n">
-        <v>919.95</v>
-      </c>
-      <c r="F9" t="n">
-        <v>592.55</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1839.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>314</v>
+        <v>0.0185074777020636</v>
       </c>
     </row>
     <row r="10">
@@ -19614,25 +19439,7 @@
         <v>41151</v>
       </c>
       <c r="B10" t="n">
-        <v>11419.45</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1128.8</v>
-      </c>
-      <c r="D10" t="n">
-        <v>630.8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1055.35</v>
-      </c>
-      <c r="F10" t="n">
-        <v>644.65</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2247.25</v>
-      </c>
-      <c r="H10" t="n">
-        <v>343.3</v>
+        <v>-0.05526554648810549</v>
       </c>
     </row>
     <row r="11">
@@ -19640,25 +19447,7 @@
         <v>41179</v>
       </c>
       <c r="B11" t="n">
-        <v>11614.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1238.05</v>
-      </c>
-      <c r="D11" t="n">
-        <v>637.35</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1087.15</v>
-      </c>
-      <c r="F11" t="n">
-        <v>625.7</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2199.35</v>
-      </c>
-      <c r="H11" t="n">
-        <v>365.45</v>
+        <v>0.03503293202245097</v>
       </c>
     </row>
     <row r="12">
@@ -19666,25 +19455,7 @@
         <v>41207</v>
       </c>
       <c r="B12" t="n">
-        <v>11992.8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1310.2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>699.85</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1081.75</v>
-      </c>
-      <c r="F12" t="n">
-        <v>651.25</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2131.85</v>
-      </c>
-      <c r="H12" t="n">
-        <v>416.95</v>
+        <v>0.01169620784706139</v>
       </c>
     </row>
     <row r="13">
@@ -19692,25 +19463,7 @@
         <v>41242</v>
       </c>
       <c r="B13" t="n">
-        <v>12459.7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1364.3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>680.1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1136.45</v>
-      </c>
-      <c r="F13" t="n">
-        <v>649.8</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2388.35</v>
-      </c>
-      <c r="H13" t="n">
-        <v>414.2</v>
+        <v>0.0206579576448674</v>
       </c>
     </row>
     <row r="14">
@@ -19718,25 +19471,7 @@
         <v>41270</v>
       </c>
       <c r="B14" t="n">
-        <v>12708.6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1505.15</v>
-      </c>
-      <c r="D14" t="n">
-        <v>643.05</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1191.15</v>
-      </c>
-      <c r="F14" t="n">
-        <v>680.35</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2438</v>
-      </c>
-      <c r="H14" t="n">
-        <v>435.8</v>
+        <v>0.002021806842241103</v>
       </c>
     </row>
     <row r="15">
@@ -19744,25 +19479,7 @@
         <v>41305</v>
       </c>
       <c r="B15" t="n">
-        <v>11487.35</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1344.15</v>
-      </c>
-      <c r="D15" t="n">
-        <v>625.35</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1040.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>659.6</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2080.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>412</v>
+        <v>-0.02857344992097485</v>
       </c>
     </row>
     <row r="16">
@@ -19770,25 +19487,7 @@
         <v>41333</v>
       </c>
       <c r="B16" t="n">
-        <v>11361.85</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1300.7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>625.35</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1045.2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>653</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2072.75</v>
-      </c>
-      <c r="H16" t="n">
-        <v>404.7</v>
+        <v>0.03881706778369092</v>
       </c>
     </row>
     <row r="17">
@@ -19796,25 +19495,7 @@
         <v>41361</v>
       </c>
       <c r="B17" t="n">
-        <v>12726.85</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1503.4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>689.55</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1177.35</v>
-      </c>
-      <c r="F17" t="n">
-        <v>710.5</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2334.55</v>
-      </c>
-      <c r="H17" t="n">
-        <v>467.85</v>
+        <v>-0.05806414144563495</v>
       </c>
     </row>
     <row r="18">
@@ -19822,25 +19503,7 @@
         <v>41389</v>
       </c>
       <c r="B18" t="n">
-        <v>12805.9</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1432.7</v>
-      </c>
-      <c r="D18" t="n">
-        <v>725.15</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1182.8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>799.85</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2088.55</v>
-      </c>
-      <c r="H18" t="n">
-        <v>528.85</v>
+        <v>0.003962964184938184</v>
       </c>
     </row>
     <row r="19">
@@ -19848,25 +19511,7 @@
         <v>41424</v>
       </c>
       <c r="B19" t="n">
-        <v>11235.75</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1275.05</v>
-      </c>
-      <c r="D19" t="n">
-        <v>646.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1030.55</v>
-      </c>
-      <c r="F19" t="n">
-        <v>702.1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1912.5</v>
-      </c>
-      <c r="H19" t="n">
-        <v>455.65</v>
+        <v>-0.0465014484202006</v>
       </c>
     </row>
     <row r="20">
@@ -19874,25 +19519,7 @@
         <v>41452</v>
       </c>
       <c r="B20" t="n">
-        <v>10614</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1127.25</v>
-      </c>
-      <c r="D20" t="n">
-        <v>653.85</v>
-      </c>
-      <c r="E20" t="n">
-        <v>934.85</v>
-      </c>
-      <c r="F20" t="n">
-        <v>685.15</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1798.15</v>
-      </c>
-      <c r="H20" t="n">
-        <v>422.45</v>
+        <v>0.001219966221985545</v>
       </c>
     </row>
     <row r="21">
@@ -19900,25 +19527,7 @@
         <v>41480</v>
       </c>
       <c r="B21" t="n">
-        <v>8904.6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>850.75</v>
-      </c>
-      <c r="D21" t="n">
-        <v>572.05</v>
-      </c>
-      <c r="E21" t="n">
-        <v>807.2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>647.45</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1487.8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>353.05</v>
+        <v>-0.05669990194695766</v>
       </c>
     </row>
     <row r="22">
@@ -19926,25 +19535,7 @@
         <v>41515</v>
       </c>
       <c r="B22" t="n">
-        <v>10098.25</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1031.35</v>
-      </c>
-      <c r="D22" t="n">
-        <v>621.15</v>
-      </c>
-      <c r="E22" t="n">
-        <v>946.1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>703.4</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1676.1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>383.4</v>
+        <v>-0.03439023587979442</v>
       </c>
     </row>
     <row r="23">
@@ -19952,25 +19543,7 @@
         <v>41543</v>
       </c>
       <c r="B23" t="n">
-        <v>11473.15</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1222.7</v>
-      </c>
-      <c r="D23" t="n">
-        <v>680.8</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1120.95</v>
-      </c>
-      <c r="F23" t="n">
-        <v>752.45</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1796.75</v>
-      </c>
-      <c r="H23" t="n">
-        <v>445.6</v>
+        <v>-0.004287247577715063</v>
       </c>
     </row>
     <row r="24">
@@ -19978,25 +19551,7 @@
         <v>41578</v>
       </c>
       <c r="B24" t="n">
-        <v>10906.75</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1120.25</v>
-      </c>
-      <c r="D24" t="n">
-        <v>653.4</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1038.1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>751.9</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1763.6</v>
-      </c>
-      <c r="H24" t="n">
-        <v>417.5</v>
+        <v>0.03093039499365735</v>
       </c>
     </row>
     <row r="25">
@@ -20004,25 +19559,7 @@
         <v>41606</v>
       </c>
       <c r="B25" t="n">
-        <v>11385.75</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1297.05</v>
-      </c>
-      <c r="D25" t="n">
-        <v>669.05</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1099.65</v>
-      </c>
-      <c r="F25" t="n">
-        <v>725.9</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1753.45</v>
-      </c>
-      <c r="H25" t="n">
-        <v>419.8</v>
+        <v>0.01165210973634796</v>
       </c>
     </row>
     <row r="26">
@@ -20030,25 +19567,7 @@
         <v>41634</v>
       </c>
       <c r="B26" t="n">
-        <v>10153.15</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1108.8</v>
-      </c>
-      <c r="D26" t="n">
-        <v>631.8</v>
-      </c>
-      <c r="E26" t="n">
-        <v>974.55</v>
-      </c>
-      <c r="F26" t="n">
-        <v>650.05</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1516.6</v>
-      </c>
-      <c r="H26" t="n">
-        <v>378.45</v>
+        <v>-0.04224905971040505</v>
       </c>
     </row>
     <row r="27">
@@ -20056,25 +19575,7 @@
         <v>41669</v>
       </c>
       <c r="B27" t="n">
-        <v>10730.4</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1239.25</v>
-      </c>
-      <c r="D27" t="n">
-        <v>677.4</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1036.45</v>
-      </c>
-      <c r="F27" t="n">
-        <v>685.4</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1520.4</v>
-      </c>
-      <c r="H27" t="n">
-        <v>395.8</v>
+        <v>0.003840533055981457</v>
       </c>
     </row>
     <row r="28">
@@ -20082,25 +19583,7 @@
         <v>41696</v>
       </c>
       <c r="B28" t="n">
-        <v>12604.95</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1429.95</v>
-      </c>
-      <c r="D28" t="n">
-        <v>746.75</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1259</v>
-      </c>
-      <c r="F28" t="n">
-        <v>771.9</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1837</v>
-      </c>
-      <c r="H28" t="n">
-        <v>491.65</v>
+        <v>-0.1017129025912872</v>
       </c>
     </row>
     <row r="29">
@@ -20108,25 +19591,7 @@
         <v>41725</v>
       </c>
       <c r="B29" t="n">
-        <v>13122.1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1519.8</v>
-      </c>
-      <c r="D29" t="n">
-        <v>733</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1299.55</v>
-      </c>
-      <c r="F29" t="n">
-        <v>822.4</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2065.2</v>
-      </c>
-      <c r="H29" t="n">
-        <v>497.4</v>
+        <v>0.01582154204086353</v>
       </c>
     </row>
     <row r="30">
@@ -20134,25 +19599,7 @@
         <v>41752</v>
       </c>
       <c r="B30" t="n">
-        <v>15030.3</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1865.7</v>
-      </c>
-      <c r="D30" t="n">
-        <v>810.25</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1436.95</v>
-      </c>
-      <c r="F30" t="n">
-        <v>860.35</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2601.45</v>
-      </c>
-      <c r="H30" t="n">
-        <v>542.75</v>
+        <v>-0.04215088787175734</v>
       </c>
     </row>
     <row r="31">
@@ -20160,25 +19607,7 @@
         <v>41788</v>
       </c>
       <c r="B31" t="n">
-        <v>15050</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1927.6</v>
-      </c>
-      <c r="D31" t="n">
-        <v>812.4</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1402.65</v>
-      </c>
-      <c r="F31" t="n">
-        <v>865.7</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2652.55</v>
-      </c>
-      <c r="H31" t="n">
-        <v>565.55</v>
+        <v>0.04874554973616818</v>
       </c>
     </row>
     <row r="32">
@@ -20186,25 +19615,7 @@
         <v>41816</v>
       </c>
       <c r="B32" t="n">
-        <v>15267.6</v>
-      </c>
-      <c r="C32" t="n">
-        <v>391.65</v>
-      </c>
-      <c r="D32" t="n">
-        <v>834</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1471.25</v>
-      </c>
-      <c r="F32" t="n">
-        <v>953.7</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2439.25</v>
-      </c>
-      <c r="H32" t="n">
-        <v>559.5</v>
+        <v>-0.1179659268071645</v>
       </c>
     </row>
     <row r="33">
@@ -20212,25 +19623,7 @@
         <v>41851</v>
       </c>
       <c r="B33" t="n">
-        <v>15740.4</v>
-      </c>
-      <c r="C33" t="n">
-        <v>397.25</v>
-      </c>
-      <c r="D33" t="n">
-        <v>843.55</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1556.8</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1037.55</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2460.7</v>
-      </c>
-      <c r="H33" t="n">
-        <v>585.45</v>
+        <v>0.03004697035468337</v>
       </c>
     </row>
     <row r="34">
@@ -20238,25 +19631,7 @@
         <v>41879</v>
       </c>
       <c r="B34" t="n">
-        <v>15299.05</v>
-      </c>
-      <c r="C34" t="n">
-        <v>377.85</v>
-      </c>
-      <c r="D34" t="n">
-        <v>849.95</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1465.3</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1028.5</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2377.7</v>
-      </c>
-      <c r="H34" t="n">
-        <v>611.55</v>
+        <v>0.02112960603424149</v>
       </c>
     </row>
     <row r="35">
@@ -20264,25 +19639,7 @@
         <v>41907</v>
       </c>
       <c r="B35" t="n">
-        <v>16760.05</v>
-      </c>
-      <c r="C35" t="n">
-        <v>430.2</v>
-      </c>
-      <c r="D35" t="n">
-        <v>896.65</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1614.05</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1094</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2638</v>
-      </c>
-      <c r="H35" t="n">
-        <v>710.25</v>
+        <v>-0.03356696359952101</v>
       </c>
     </row>
     <row r="36">
@@ -20290,25 +19647,7 @@
         <v>41942</v>
       </c>
       <c r="B36" t="n">
-        <v>18022.5</v>
-      </c>
-      <c r="C36" t="n">
-        <v>469.4</v>
-      </c>
-      <c r="D36" t="n">
-        <v>948.15</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1723.2</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1157.6</v>
-      </c>
-      <c r="G36" t="n">
-        <v>305.85</v>
-      </c>
-      <c r="H36" t="n">
-        <v>720.6</v>
+        <v>-0.1323557658065679</v>
       </c>
     </row>
     <row r="37">
@@ -20316,25 +19655,7 @@
         <v>41970</v>
       </c>
       <c r="B37" t="n">
-        <v>18535.35</v>
-      </c>
-      <c r="C37" t="n">
-        <v>494.3</v>
-      </c>
-      <c r="D37" t="n">
-        <v>945.25</v>
-      </c>
-      <c r="E37" t="n">
-        <v>353.1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1245.35</v>
-      </c>
-      <c r="G37" t="n">
-        <v>305.75</v>
-      </c>
-      <c r="H37" t="n">
-        <v>784.55</v>
+        <v>-0.1396069688383487</v>
       </c>
     </row>
     <row r="38">
@@ -20342,25 +19663,7 @@
         <v>41997</v>
       </c>
       <c r="B38" t="n">
-        <v>20528.6</v>
-      </c>
-      <c r="C38" t="n">
-        <v>599.5</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1095</v>
-      </c>
-      <c r="E38" t="n">
-        <v>380.3</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1331.4</v>
-      </c>
-      <c r="G38" t="n">
-        <v>327</v>
-      </c>
-      <c r="H38" t="n">
-        <v>876.05</v>
+        <v>-0.05772385008143369</v>
       </c>
     </row>
     <row r="39">
@@ -20368,25 +19671,7 @@
         <v>42033</v>
       </c>
       <c r="B39" t="n">
-        <v>18538.1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>552.3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1038.15</v>
-      </c>
-      <c r="E39" t="n">
-        <v>321.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1333.35</v>
-      </c>
-      <c r="G39" t="n">
-        <v>289.4</v>
-      </c>
-      <c r="H39" t="n">
-        <v>845.3</v>
+        <v>-0.0006810604140086542</v>
       </c>
     </row>
     <row r="40">
@@ -20394,25 +19679,7 @@
         <v>42061</v>
       </c>
       <c r="B40" t="n">
-        <v>17831.65</v>
-      </c>
-      <c r="C40" t="n">
-        <v>544.3</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1006.95</v>
-      </c>
-      <c r="E40" t="n">
-        <v>307.95</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1305.4</v>
-      </c>
-      <c r="G40" t="n">
-        <v>256.65</v>
-      </c>
-      <c r="H40" t="n">
-        <v>860.35</v>
+        <v>0.03071376070745114</v>
       </c>
     </row>
     <row r="41">
@@ -20420,25 +19687,7 @@
         <v>42089</v>
       </c>
       <c r="B41" t="n">
-        <v>18338.1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>567.8</v>
-      </c>
-      <c r="D41" t="n">
-        <v>988.8</v>
-      </c>
-      <c r="E41" t="n">
-        <v>331.15</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1332.9</v>
-      </c>
-      <c r="G41" t="n">
-        <v>269.75</v>
-      </c>
-      <c r="H41" t="n">
-        <v>823.8</v>
+        <v>0.03208511441617411</v>
       </c>
     </row>
     <row r="42">
@@ -20446,25 +19695,7 @@
         <v>42124</v>
       </c>
       <c r="B42" t="n">
-        <v>18449.2</v>
-      </c>
-      <c r="C42" t="n">
-        <v>574.65</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1029.4</v>
-      </c>
-      <c r="E42" t="n">
-        <v>314.5</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1368.15</v>
-      </c>
-      <c r="G42" t="n">
-        <v>277.6</v>
-      </c>
-      <c r="H42" t="n">
-        <v>855.3</v>
+        <v>0.02970935942682244</v>
       </c>
     </row>
     <row r="43">
@@ -20472,25 +19703,7 @@
         <v>42152</v>
       </c>
       <c r="B43" t="n">
-        <v>18492.9</v>
-      </c>
-      <c r="C43" t="n">
-        <v>570.05</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1065</v>
-      </c>
-      <c r="E43" t="n">
-        <v>314.8</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1406.6</v>
-      </c>
-      <c r="G43" t="n">
-        <v>264.8</v>
-      </c>
-      <c r="H43" t="n">
-        <v>867.15</v>
+        <v>0.03797011523345772</v>
       </c>
     </row>
     <row r="44">
@@ -20498,25 +19711,7 @@
         <v>42180</v>
       </c>
       <c r="B44" t="n">
-        <v>18440.4</v>
-      </c>
-      <c r="C44" t="n">
-        <v>565.7</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1110.55</v>
-      </c>
-      <c r="E44" t="n">
-        <v>291</v>
-      </c>
-      <c r="F44" t="n">
-        <v>716.8</v>
-      </c>
-      <c r="G44" t="n">
-        <v>256.8</v>
-      </c>
-      <c r="H44" t="n">
-        <v>973.7</v>
+        <v>-0.04621313311231665</v>
       </c>
     </row>
     <row r="45">
@@ -20524,25 +19719,7 @@
         <v>42215</v>
       </c>
       <c r="B45" t="n">
-        <v>17214.4</v>
-      </c>
-      <c r="C45" t="n">
-        <v>509.25</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1022.1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>282.45</v>
-      </c>
-      <c r="F45" t="n">
-        <v>650.4</v>
-      </c>
-      <c r="G45" t="n">
-        <v>249.45</v>
-      </c>
-      <c r="H45" t="n">
-        <v>858.5</v>
+        <v>-0.006829210188010316</v>
       </c>
     </row>
     <row r="46">
@@ -20550,25 +19727,7 @@
         <v>42243</v>
       </c>
       <c r="B46" t="n">
-        <v>17196.65</v>
-      </c>
-      <c r="C46" t="n">
-        <v>513.95</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1051.4</v>
-      </c>
-      <c r="E46" t="n">
-        <v>268.3</v>
-      </c>
-      <c r="F46" t="n">
-        <v>654.45</v>
-      </c>
-      <c r="G46" t="n">
-        <v>239.05</v>
-      </c>
-      <c r="H46" t="n">
-        <v>926.9</v>
+        <v>0.05000978719479357</v>
       </c>
     </row>
     <row r="47">
@@ -20576,25 +19735,7 @@
         <v>42271</v>
       </c>
       <c r="B47" t="n">
-        <v>17212.2</v>
-      </c>
-      <c r="C47" t="n">
-        <v>468.95</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1103.55</v>
-      </c>
-      <c r="E47" t="n">
-        <v>271.45</v>
-      </c>
-      <c r="F47" t="n">
-        <v>664</v>
-      </c>
-      <c r="G47" t="n">
-        <v>236.95</v>
-      </c>
-      <c r="H47" t="n">
-        <v>914.5</v>
+        <v>0.04086708549383906</v>
       </c>
     </row>
     <row r="48">
@@ -20602,25 +19743,7 @@
         <v>42306</v>
       </c>
       <c r="B48" t="n">
-        <v>17036.55</v>
-      </c>
-      <c r="C48" t="n">
-        <v>465.3</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1063.95</v>
-      </c>
-      <c r="E48" t="n">
-        <v>264</v>
-      </c>
-      <c r="F48" t="n">
-        <v>685.2</v>
-      </c>
-      <c r="G48" t="n">
-        <v>242.5</v>
-      </c>
-      <c r="H48" t="n">
-        <v>915.55</v>
+        <v>0.03648864242385211</v>
       </c>
     </row>
     <row r="49">
@@ -20628,25 +19751,7 @@
         <v>42334</v>
       </c>
       <c r="B49" t="n">
-        <v>16922.2</v>
-      </c>
-      <c r="C49" t="n">
-        <v>449.1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1082.15</v>
-      </c>
-      <c r="E49" t="n">
-        <v>261.35</v>
-      </c>
-      <c r="F49" t="n">
-        <v>720.05</v>
-      </c>
-      <c r="G49" t="n">
-        <v>224.45</v>
-      </c>
-      <c r="H49" t="n">
-        <v>968.95</v>
+        <v>0.03332797362928056</v>
       </c>
     </row>
     <row r="50">
@@ -20654,25 +19759,7 @@
         <v>42369</v>
       </c>
       <c r="B50" t="n">
-        <v>15381.45</v>
-      </c>
-      <c r="C50" t="n">
-        <v>405.65</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1031.7</v>
-      </c>
-      <c r="E50" t="n">
-        <v>233.2</v>
-      </c>
-      <c r="F50" t="n">
-        <v>663.25</v>
-      </c>
-      <c r="G50" t="n">
-        <v>185.25</v>
-      </c>
-      <c r="H50" t="n">
-        <v>907.15</v>
+        <v>-0.03641478501112067</v>
       </c>
     </row>
     <row r="51">
@@ -20680,25 +19767,7 @@
         <v>42397</v>
       </c>
       <c r="B51" t="n">
-        <v>13555.7</v>
-      </c>
-      <c r="C51" t="n">
-        <v>378.2</v>
-      </c>
-      <c r="D51" t="n">
-        <v>942.65</v>
-      </c>
-      <c r="E51" t="n">
-        <v>183</v>
-      </c>
-      <c r="F51" t="n">
-        <v>606.85</v>
-      </c>
-      <c r="G51" t="n">
-        <v>151.8</v>
-      </c>
-      <c r="H51" t="n">
-        <v>807.75</v>
+        <v>-0.05270829509312134</v>
       </c>
     </row>
     <row r="52">
@@ -20706,25 +19775,7 @@
         <v>42425</v>
       </c>
       <c r="B52" t="n">
-        <v>16141.65</v>
-      </c>
-      <c r="C52" t="n">
-        <v>444.15</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1071.15</v>
-      </c>
-      <c r="E52" t="n">
-        <v>236.65</v>
-      </c>
-      <c r="F52" t="n">
-        <v>680.65</v>
-      </c>
-      <c r="G52" t="n">
-        <v>194.25</v>
-      </c>
-      <c r="H52" t="n">
-        <v>967.6</v>
+        <v>-0.1033297963129508</v>
       </c>
     </row>
     <row r="53">
@@ -20732,25 +19783,7 @@
         <v>42460</v>
       </c>
       <c r="B53" t="n">
-        <v>16716.9</v>
-      </c>
-      <c r="C53" t="n">
-        <v>468.05</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1113.95</v>
-      </c>
-      <c r="E53" t="n">
-        <v>240.1</v>
-      </c>
-      <c r="F53" t="n">
-        <v>701.45</v>
-      </c>
-      <c r="G53" t="n">
-        <v>192.05</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1035</v>
+        <v>0.03912122935828635</v>
       </c>
     </row>
     <row r="54">
@@ -20758,25 +19791,7 @@
         <v>42488</v>
       </c>
       <c r="B54" t="n">
-        <v>17359.3</v>
-      </c>
-      <c r="C54" t="n">
-        <v>519</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1183.25</v>
-      </c>
-      <c r="E54" t="n">
-        <v>241.15</v>
-      </c>
-      <c r="F54" t="n">
-        <v>730.2</v>
-      </c>
-      <c r="G54" t="n">
-        <v>184.15</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1103.9</v>
+        <v>0.01589258602683653</v>
       </c>
     </row>
     <row r="55">
@@ -20784,25 +19799,7 @@
         <v>42516</v>
       </c>
       <c r="B55" t="n">
-        <v>17935.4</v>
-      </c>
-      <c r="C55" t="n">
-        <v>533.5</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1176.45</v>
-      </c>
-      <c r="E55" t="n">
-        <v>240.55</v>
-      </c>
-      <c r="F55" t="n">
-        <v>763.35</v>
-      </c>
-      <c r="G55" t="n">
-        <v>218.8</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1111.6</v>
+        <v>0.02633459023549988</v>
       </c>
     </row>
     <row r="56">
@@ -20810,25 +19807,7 @@
         <v>42551</v>
       </c>
       <c r="B56" t="n">
-        <v>19076.55</v>
-      </c>
-      <c r="C56" t="n">
-        <v>543.85</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1248.45</v>
-      </c>
-      <c r="E56" t="n">
-        <v>272</v>
-      </c>
-      <c r="F56" t="n">
-        <v>750.35</v>
-      </c>
-      <c r="G56" t="n">
-        <v>231</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1168.3</v>
+        <v>0.003456255048923856</v>
       </c>
     </row>
     <row r="57">
@@ -20836,25 +19815,7 @@
         <v>42579</v>
       </c>
       <c r="B57" t="n">
-        <v>19304.25</v>
-      </c>
-      <c r="C57" t="n">
-        <v>586.55</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1258.55</v>
-      </c>
-      <c r="E57" t="n">
-        <v>246.95</v>
-      </c>
-      <c r="F57" t="n">
-        <v>780.75</v>
-      </c>
-      <c r="G57" t="n">
-        <v>250.15</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1182.05</v>
+        <v>0.00929288282819103</v>
       </c>
     </row>
     <row r="58">
@@ -20862,25 +19823,7 @@
         <v>42607</v>
       </c>
       <c r="B58" t="n">
-        <v>19183.65</v>
-      </c>
-      <c r="C58" t="n">
-        <v>539.3</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1277.5</v>
-      </c>
-      <c r="E58" t="n">
-        <v>250.35</v>
-      </c>
-      <c r="F58" t="n">
-        <v>772.6</v>
-      </c>
-      <c r="G58" t="n">
-        <v>247.25</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1197.85</v>
+        <v>0.03196794346431208</v>
       </c>
     </row>
     <row r="59">
@@ -20888,25 +19831,7 @@
         <v>42642</v>
       </c>
       <c r="B59" t="n">
-        <v>19514.6</v>
-      </c>
-      <c r="C59" t="n">
-        <v>485.65</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1252.1</v>
-      </c>
-      <c r="E59" t="n">
-        <v>284.3</v>
-      </c>
-      <c r="F59" t="n">
-        <v>806.6</v>
-      </c>
-      <c r="G59" t="n">
-        <v>255.4</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1179.05</v>
+        <v>0.001167334838415777</v>
       </c>
     </row>
     <row r="60">
@@ -20914,25 +19839,7 @@
         <v>42670</v>
       </c>
       <c r="B60" t="n">
-        <v>18256.1</v>
-      </c>
-      <c r="C60" t="n">
-        <v>468.2</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1165.5</v>
-      </c>
-      <c r="E60" t="n">
-        <v>259.3</v>
-      </c>
-      <c r="F60" t="n">
-        <v>742.1</v>
-      </c>
-      <c r="G60" t="n">
-        <v>261.75</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1044.4</v>
+        <v>0.00456934967480426</v>
       </c>
     </row>
     <row r="61">
@@ -20940,25 +19847,7 @@
         <v>42698</v>
       </c>
       <c r="B61" t="n">
-        <v>18033.15</v>
-      </c>
-      <c r="C61" t="n">
-        <v>444.25</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1205.2</v>
-      </c>
-      <c r="E61" t="n">
-        <v>251.1</v>
-      </c>
-      <c r="F61" t="n">
-        <v>713.4</v>
-      </c>
-      <c r="G61" t="n">
-        <v>247.65</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1105.65</v>
+        <v>0.03035787425125902</v>
       </c>
     </row>
     <row r="62">
@@ -20966,25 +19855,7 @@
         <v>42733</v>
       </c>
       <c r="B62" t="n">
-        <v>19473.2</v>
-      </c>
-      <c r="C62" t="n">
-        <v>463.55</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1290.6</v>
-      </c>
-      <c r="E62" t="n">
-        <v>259.95</v>
-      </c>
-      <c r="F62" t="n">
-        <v>795.2</v>
-      </c>
-      <c r="G62" t="n">
-        <v>259.2</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1265.4</v>
+        <v>-0.01221045871350309</v>
       </c>
     </row>
     <row r="63">
@@ -20992,25 +19863,7 @@
         <v>42760</v>
       </c>
       <c r="B63" t="n">
-        <v>20876.65</v>
-      </c>
-      <c r="C63" t="n">
-        <v>528.15</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1394.3</v>
-      </c>
-      <c r="E63" t="n">
-        <v>284.5</v>
-      </c>
-      <c r="F63" t="n">
-        <v>810.95</v>
-      </c>
-      <c r="G63" t="n">
-        <v>270.45</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1340.75</v>
+        <v>-0.01975843234032166</v>
       </c>
     </row>
     <row r="64">
@@ -21018,25 +19871,7 @@
         <v>42789</v>
       </c>
       <c r="B64" t="n">
-        <v>21620.7</v>
-      </c>
-      <c r="C64" t="n">
-        <v>499.25</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1466.2</v>
-      </c>
-      <c r="E64" t="n">
-        <v>281.35</v>
-      </c>
-      <c r="F64" t="n">
-        <v>865.15</v>
-      </c>
-      <c r="G64" t="n">
-        <v>291.05</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1422.3</v>
+        <v>0.01682531363694098</v>
       </c>
     </row>
     <row r="65">
@@ -21044,25 +19879,7 @@
         <v>42824</v>
       </c>
       <c r="B65" t="n">
-        <v>22326.3</v>
-      </c>
-      <c r="C65" t="n">
-        <v>506.6</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1568.6</v>
-      </c>
-      <c r="E65" t="n">
-        <v>274.15</v>
-      </c>
-      <c r="F65" t="n">
-        <v>916.65</v>
-      </c>
-      <c r="G65" t="n">
-        <v>282.05</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1470.65</v>
+        <v>0.01632382059653964</v>
       </c>
     </row>
     <row r="66">
@@ -21070,25 +19887,7 @@
         <v>42852</v>
       </c>
       <c r="B66" t="n">
-        <v>23190.8</v>
-      </c>
-      <c r="C66" t="n">
-        <v>507.45</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1617.15</v>
-      </c>
-      <c r="E66" t="n">
-        <v>317.7</v>
-      </c>
-      <c r="F66" t="n">
-        <v>956.5</v>
-      </c>
-      <c r="G66" t="n">
-        <v>290.1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1461.6</v>
+        <v>-0.005270994686129585</v>
       </c>
     </row>
     <row r="67">
@@ -21096,25 +19895,7 @@
         <v>42880</v>
       </c>
       <c r="B67" t="n">
-        <v>23227.3</v>
-      </c>
-      <c r="C67" t="n">
-        <v>512.1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1663.05</v>
-      </c>
-      <c r="E67" t="n">
-        <v>293.25</v>
-      </c>
-      <c r="F67" t="n">
-        <v>948.35</v>
-      </c>
-      <c r="G67" t="n">
-        <v>272.45</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1479.55</v>
+        <v>0.02548021285025365</v>
       </c>
     </row>
     <row r="68">
@@ -21122,25 +19903,7 @@
         <v>42915</v>
       </c>
       <c r="B68" t="n">
-        <v>24922.4</v>
-      </c>
-      <c r="C68" t="n">
-        <v>524.65</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1789.65</v>
-      </c>
-      <c r="E68" t="n">
-        <v>307.2</v>
-      </c>
-      <c r="F68" t="n">
-        <v>998.15</v>
-      </c>
-      <c r="G68" t="n">
-        <v>298.35</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1606.7</v>
+        <v>-0.007786724786950304</v>
       </c>
     </row>
     <row r="69">
@@ -21148,25 +19911,7 @@
         <v>42943</v>
       </c>
       <c r="B69" t="n">
-        <v>24318.4</v>
-      </c>
-      <c r="C69" t="n">
-        <v>500.35</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1776.45</v>
-      </c>
-      <c r="E69" t="n">
-        <v>298.05</v>
-      </c>
-      <c r="F69" t="n">
-        <v>976</v>
-      </c>
-      <c r="G69" t="n">
-        <v>277.75</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1656.75</v>
+        <v>0.02337469935098743</v>
       </c>
     </row>
     <row r="70">
@@ -21174,25 +19919,7 @@
         <v>42978</v>
       </c>
       <c r="B70" t="n">
-        <v>24008.15</v>
-      </c>
-      <c r="C70" t="n">
-        <v>511.8</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1795.3</v>
-      </c>
-      <c r="E70" t="n">
-        <v>275.95</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1005.25</v>
-      </c>
-      <c r="G70" t="n">
-        <v>252.55</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1680.75</v>
+        <v>-0.00114824036076906</v>
       </c>
     </row>
     <row r="71">
@@ -21200,25 +19927,7 @@
         <v>43006</v>
       </c>
       <c r="B71" t="n">
-        <v>25022.2</v>
-      </c>
-      <c r="C71" t="n">
-        <v>484.3</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1795.35</v>
-      </c>
-      <c r="E71" t="n">
-        <v>299.25</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1018.9</v>
-      </c>
-      <c r="G71" t="n">
-        <v>320.5</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1617.6</v>
+        <v>-0.02058852256034719</v>
       </c>
     </row>
     <row r="72">
@@ -21226,25 +19935,7 @@
         <v>43034</v>
       </c>
       <c r="B72" t="n">
-        <v>25332.4</v>
-      </c>
-      <c r="C72" t="n">
-        <v>535.4</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1853.7</v>
-      </c>
-      <c r="E72" t="n">
-        <v>307.55</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1000.3</v>
-      </c>
-      <c r="G72" t="n">
-        <v>320.35</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1661.95</v>
+        <v>0.03698686687520242</v>
       </c>
     </row>
     <row r="73">
@@ -21252,25 +19943,7 @@
         <v>43069</v>
       </c>
       <c r="B73" t="n">
-        <v>25490</v>
-      </c>
-      <c r="C73" t="n">
-        <v>546.85</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1878.05</v>
-      </c>
-      <c r="E73" t="n">
-        <v>315.3</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1004.75</v>
-      </c>
-      <c r="G73" t="n">
-        <v>308.4</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1650.45</v>
+        <v>0.0369088207349147</v>
       </c>
     </row>
     <row r="74">
@@ -21278,25 +19951,7 @@
         <v>43097</v>
       </c>
       <c r="B74" t="n">
-        <v>27445.65</v>
-      </c>
-      <c r="C74" t="n">
-        <v>616.1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1974.95</v>
-      </c>
-      <c r="E74" t="n">
-        <v>360.8</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1092.35</v>
-      </c>
-      <c r="G74" t="n">
-        <v>313.15</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1730.2</v>
+        <v>-0.03287776334355021</v>
       </c>
     </row>
     <row r="75">
@@ -21304,25 +19959,7 @@
         <v>43125</v>
       </c>
       <c r="B75" t="n">
-        <v>24955.2</v>
-      </c>
-      <c r="C75" t="n">
-        <v>530.25</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1853.2</v>
-      </c>
-      <c r="E75" t="n">
-        <v>318.35</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1072.5</v>
-      </c>
-      <c r="G75" t="n">
-        <v>272.6</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1623.5</v>
+        <v>-0.02477874921068564</v>
       </c>
     </row>
     <row r="76">
@@ -21330,25 +19967,7 @@
         <v>43153</v>
       </c>
       <c r="B76" t="n">
-        <v>24263.35</v>
-      </c>
-      <c r="C76" t="n">
-        <v>510.5</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1886.1</v>
-      </c>
-      <c r="E76" t="n">
-        <v>278.35</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1047.8</v>
-      </c>
-      <c r="G76" t="n">
-        <v>249.9</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1796.75</v>
+        <v>-0.01173424914673684</v>
       </c>
     </row>
     <row r="77">
@@ -21356,25 +19975,7 @@
         <v>43187</v>
       </c>
       <c r="B77" t="n">
-        <v>25010.9</v>
-      </c>
-      <c r="C77" t="n">
-        <v>493.75</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1930.25</v>
-      </c>
-      <c r="E77" t="n">
-        <v>278.85</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1185.7</v>
-      </c>
-      <c r="G77" t="n">
-        <v>233.2</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1881.9</v>
+        <v>0.007050347827560739</v>
       </c>
     </row>
     <row r="78">
@@ -21382,25 +19983,7 @@
         <v>43216</v>
       </c>
       <c r="B78" t="n">
-        <v>26956.2</v>
-      </c>
-      <c r="C78" t="n">
-        <v>545.9</v>
-      </c>
-      <c r="D78" t="n">
-        <v>2139.45</v>
-      </c>
-      <c r="E78" t="n">
-        <v>285.8</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1334.6</v>
-      </c>
-      <c r="G78" t="n">
-        <v>269.55</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1955.45</v>
+        <v>-0.02839048279040909</v>
       </c>
     </row>
     <row r="79">
@@ -21408,25 +19991,7 @@
         <v>43251</v>
       </c>
       <c r="B79" t="n">
-        <v>26324.6</v>
-      </c>
-      <c r="C79" t="n">
-        <v>504.6</v>
-      </c>
-      <c r="D79" t="n">
-        <v>2130.85</v>
-      </c>
-      <c r="E79" t="n">
-        <v>271.4</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1339.1</v>
-      </c>
-      <c r="G79" t="n">
-        <v>257</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1967.6</v>
+        <v>0.0258233774217406</v>
       </c>
     </row>
     <row r="80">
@@ -21434,25 +19999,7 @@
         <v>43279</v>
       </c>
       <c r="B80" t="n">
-        <v>27406.4</v>
-      </c>
-      <c r="C80" t="n">
-        <v>541.65</v>
-      </c>
-      <c r="D80" t="n">
-        <v>2192.6</v>
-      </c>
-      <c r="E80" t="n">
-        <v>285.65</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1311.25</v>
-      </c>
-      <c r="G80" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1960.35</v>
+        <v>0.0002853188437284054</v>
       </c>
     </row>
     <row r="81">
@@ -21460,25 +20007,7 @@
         <v>43307</v>
       </c>
       <c r="B81" t="n">
-        <v>28103.25</v>
-      </c>
-      <c r="C81" t="n">
-        <v>649.75</v>
-      </c>
-      <c r="D81" t="n">
-        <v>2066.1</v>
-      </c>
-      <c r="E81" t="n">
-        <v>344.35</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1278.05</v>
-      </c>
-      <c r="G81" t="n">
-        <v>308.6</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1875.65</v>
+        <v>-0.04029914618056855</v>
       </c>
     </row>
     <row r="82">
@@ -21486,25 +20015,7 @@
         <v>43342</v>
       </c>
       <c r="B82" t="n">
-        <v>25042.15</v>
-      </c>
-      <c r="C82" t="n">
-        <v>600.15</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1976.15</v>
-      </c>
-      <c r="E82" t="n">
-        <v>306.65</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1142.45</v>
-      </c>
-      <c r="G82" t="n">
-        <v>265.35</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1682</v>
+        <v>-0.02571037684017271</v>
       </c>
     </row>
     <row r="83">
@@ -21512,25 +20023,7 @@
         <v>43370</v>
       </c>
       <c r="B83" t="n">
-        <v>24817.45</v>
-      </c>
-      <c r="C83" t="n">
-        <v>561.05</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1968.8</v>
-      </c>
-      <c r="E83" t="n">
-        <v>319.95</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1185.8</v>
-      </c>
-      <c r="G83" t="n">
-        <v>249.55</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1491.1</v>
+        <v>0.0288418004064657</v>
       </c>
     </row>
     <row r="84">
@@ -21538,25 +20031,7 @@
         <v>43398</v>
       </c>
       <c r="B84" t="n">
-        <v>26939.6</v>
-      </c>
-      <c r="C84" t="n">
-        <v>631.4</v>
-      </c>
-      <c r="D84" t="n">
-        <v>2131.05</v>
-      </c>
-      <c r="E84" t="n">
-        <v>362.2</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1212.95</v>
-      </c>
-      <c r="G84" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1660.55</v>
+        <v>-0.02074384669184156</v>
       </c>
     </row>
     <row r="85">
@@ -21564,25 +20039,7 @@
         <v>43433</v>
       </c>
       <c r="B85" t="n">
-        <v>26878.55</v>
-      </c>
-      <c r="C85" t="n">
-        <v>617.55</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2105.05</v>
-      </c>
-      <c r="E85" t="n">
-        <v>355.65</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1240.25</v>
-      </c>
-      <c r="G85" t="n">
-        <v>292.15</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1564</v>
+        <v>0.03866977715961554</v>
       </c>
     </row>
     <row r="86">
@@ -21590,25 +20047,7 @@
         <v>43461</v>
       </c>
       <c r="B86" t="n">
-        <v>27295.45</v>
-      </c>
-      <c r="C86" t="n">
-        <v>722.7</v>
-      </c>
-      <c r="D86" t="n">
-        <v>2079.95</v>
-      </c>
-      <c r="E86" t="n">
-        <v>364.45</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1255.75</v>
-      </c>
-      <c r="G86" t="n">
-        <v>293.65</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1505.55</v>
+        <v>0.02184271365843858</v>
       </c>
     </row>
     <row r="87">
@@ -21616,25 +20055,7 @@
         <v>43496</v>
       </c>
       <c r="B87" t="n">
-        <v>26789.9</v>
-      </c>
-      <c r="C87" t="n">
-        <v>709.55</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2077.55</v>
-      </c>
-      <c r="E87" t="n">
-        <v>350.15</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1213.1</v>
-      </c>
-      <c r="G87" t="n">
-        <v>269.05</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1473.85</v>
+        <v>0.03486879039360977</v>
       </c>
     </row>
     <row r="88">
@@ -21642,25 +20063,7 @@
         <v>43524</v>
       </c>
       <c r="B88" t="n">
-        <v>30420.55</v>
-      </c>
-      <c r="C88" t="n">
-        <v>780.7</v>
-      </c>
-      <c r="D88" t="n">
-        <v>2302.8</v>
-      </c>
-      <c r="E88" t="n">
-        <v>400.55</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1340.75</v>
-      </c>
-      <c r="G88" t="n">
-        <v>319</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1821.1</v>
+        <v>-0.07277198638950994</v>
       </c>
     </row>
     <row r="89">
@@ -21668,25 +20071,7 @@
         <v>43552</v>
       </c>
       <c r="B89" t="n">
-        <v>29561.35</v>
-      </c>
-      <c r="C89" t="n">
-        <v>740.9</v>
-      </c>
-      <c r="D89" t="n">
-        <v>2263.45</v>
-      </c>
-      <c r="E89" t="n">
-        <v>395.4</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1360.4</v>
-      </c>
-      <c r="G89" t="n">
-        <v>306.2</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1683.45</v>
+        <v>0.0309227305332359</v>
       </c>
     </row>
     <row r="90">
@@ -21694,25 +20079,7 @@
         <v>43580</v>
       </c>
       <c r="B90" t="n">
-        <v>31537.1</v>
-      </c>
-      <c r="C90" t="n">
-        <v>807.55</v>
-      </c>
-      <c r="D90" t="n">
-        <v>2439.55</v>
-      </c>
-      <c r="E90" t="n">
-        <v>426.2</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1535.35</v>
-      </c>
-      <c r="G90" t="n">
-        <v>353.55</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1586.9</v>
+        <v>-0.01984845121596122</v>
       </c>
     </row>
     <row r="91">
@@ -21720,25 +20087,7 @@
         <v>43615</v>
       </c>
       <c r="B91" t="n">
-        <v>31269.5</v>
-      </c>
-      <c r="C91" t="n">
-        <v>800.45</v>
-      </c>
-      <c r="D91" t="n">
-        <v>2462.3</v>
-      </c>
-      <c r="E91" t="n">
-        <v>440.95</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1481.6</v>
-      </c>
-      <c r="G91" t="n">
-        <v>362.15</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1450.2</v>
+        <v>0.03270804464949546</v>
       </c>
     </row>
     <row r="92">
@@ -21746,25 +20095,7 @@
         <v>43643</v>
       </c>
       <c r="B92" t="n">
-        <v>29043.05</v>
-      </c>
-      <c r="C92" t="n">
-        <v>723.15</v>
-      </c>
-      <c r="D92" t="n">
-        <v>2286.05</v>
-      </c>
-      <c r="E92" t="n">
-        <v>409</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1485.05</v>
-      </c>
-      <c r="G92" t="n">
-        <v>341.3</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1391.65</v>
+        <v>-0.01230139746561377</v>
       </c>
     </row>
     <row r="93">
@@ -21772,25 +20103,7 @@
         <v>43671</v>
       </c>
       <c r="B93" t="n">
-        <v>27305.2</v>
-      </c>
-      <c r="C93" t="n">
-        <v>661.15</v>
-      </c>
-      <c r="D93" t="n">
-        <v>2226.95</v>
-      </c>
-      <c r="E93" t="n">
-        <v>404.4</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1450.85</v>
-      </c>
-      <c r="G93" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1350.55</v>
+        <v>0.005961375493893003</v>
       </c>
     </row>
     <row r="94">
@@ -21798,25 +20111,7 @@
         <v>43706</v>
       </c>
       <c r="B94" t="n">
-        <v>30002.6</v>
-      </c>
-      <c r="C94" t="n">
-        <v>699.9</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1242.5</v>
-      </c>
-      <c r="E94" t="n">
-        <v>451.95</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1626.85</v>
-      </c>
-      <c r="G94" t="n">
-        <v>281.85</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1548</v>
+        <v>-0.119729024603624</v>
       </c>
     </row>
     <row r="95">
@@ -21824,25 +20119,7 @@
         <v>43734</v>
       </c>
       <c r="B95" t="n">
-        <v>30066.25</v>
-      </c>
-      <c r="C95" t="n">
-        <v>736.35</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1230.35</v>
-      </c>
-      <c r="E95" t="n">
-        <v>463.05</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1574.5</v>
-      </c>
-      <c r="G95" t="n">
-        <v>312.4</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1313.2</v>
+        <v>0.03341995700841954</v>
       </c>
     </row>
     <row r="96">
@@ -21850,25 +20127,7 @@
         <v>43769</v>
       </c>
       <c r="B96" t="n">
-        <v>32122.95</v>
-      </c>
-      <c r="C96" t="n">
-        <v>750.6</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1265.3</v>
-      </c>
-      <c r="E96" t="n">
-        <v>519.15</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1615</v>
-      </c>
-      <c r="G96" t="n">
-        <v>349.3</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1568.25</v>
+        <v>0.003834192435012779</v>
       </c>
     </row>
     <row r="97">
@@ -21876,25 +20135,7 @@
         <v>43797</v>
       </c>
       <c r="B97" t="n">
-        <v>31997.7</v>
-      </c>
-      <c r="C97" t="n">
-        <v>736.5</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1270.45</v>
-      </c>
-      <c r="E97" t="n">
-        <v>538.75</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1694.25</v>
-      </c>
-      <c r="G97" t="n">
-        <v>329.85</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1515.4</v>
+        <v>0.02459122552700454</v>
       </c>
     </row>
     <row r="98">
@@ -21902,25 +20143,7 @@
         <v>43825</v>
       </c>
       <c r="B98" t="n">
-        <v>30647.4</v>
-      </c>
-      <c r="C98" t="n">
-        <v>730.9</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1226.05</v>
-      </c>
-      <c r="E98" t="n">
-        <v>532.2</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1628.25</v>
-      </c>
-      <c r="G98" t="n">
-        <v>310.7</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1231.5</v>
+        <v>0.01318802013561966</v>
       </c>
     </row>
     <row r="99">
@@ -21928,25 +20151,7 @@
         <v>43860</v>
       </c>
       <c r="B99" t="n">
-        <v>30187</v>
-      </c>
-      <c r="C99" t="n">
-        <v>735.85</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1199.45</v>
-      </c>
-      <c r="E99" t="n">
-        <v>515.35</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1682.75</v>
-      </c>
-      <c r="G99" t="n">
-        <v>321.95</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1115.55</v>
+        <v>0.03488061706616571</v>
       </c>
     </row>
     <row r="100">
@@ -21954,25 +20159,7 @@
         <v>43888</v>
       </c>
       <c r="B100" t="n">
-        <v>19613.9</v>
-      </c>
-      <c r="C100" t="n">
-        <v>341.4</v>
-      </c>
-      <c r="D100" t="n">
-        <v>901.1</v>
-      </c>
-      <c r="E100" t="n">
-        <v>330.25</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1372.95</v>
-      </c>
-      <c r="G100" t="n">
-        <v>192.75</v>
-      </c>
-      <c r="H100" t="n">
-        <v>435.9</v>
+        <v>-0.2918003295069754</v>
       </c>
     </row>
     <row r="101">
@@ -21980,25 +20167,7 @@
         <v>43916</v>
       </c>
       <c r="B101" t="n">
-        <v>21534.5</v>
-      </c>
-      <c r="C101" t="n">
-        <v>444.9</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1001.8</v>
-      </c>
-      <c r="E101" t="n">
-        <v>380.15</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1357.2</v>
-      </c>
-      <c r="G101" t="n">
-        <v>190.5</v>
-      </c>
-      <c r="H101" t="n">
-        <v>468.15</v>
+        <v>0.1366699786012939</v>
       </c>
     </row>
     <row r="102">
@@ -22006,25 +20175,7 @@
         <v>43951</v>
       </c>
       <c r="B102" t="n">
-        <v>19169.8</v>
-      </c>
-      <c r="C102" t="n">
-        <v>390.95</v>
-      </c>
-      <c r="D102" t="n">
-        <v>945.25</v>
-      </c>
-      <c r="E102" t="n">
-        <v>326.85</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1229.45</v>
-      </c>
-      <c r="G102" t="n">
-        <v>158.2</v>
-      </c>
-      <c r="H102" t="n">
-        <v>386.85</v>
+        <v>0.009261542893402261</v>
       </c>
     </row>
     <row r="103">
@@ -22032,25 +20183,7 @@
         <v>43979</v>
       </c>
       <c r="B103" t="n">
-        <v>21506.15</v>
-      </c>
-      <c r="C103" t="n">
-        <v>421.7</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1028.75</v>
-      </c>
-      <c r="E103" t="n">
-        <v>351</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1381.7</v>
-      </c>
-      <c r="G103" t="n">
-        <v>185.25</v>
-      </c>
-      <c r="H103" t="n">
-        <v>475.15</v>
+        <v>0.01624699862422545</v>
       </c>
     </row>
     <row r="104">
@@ -22058,25 +20191,7 @@
         <v>44007</v>
       </c>
       <c r="B104" t="n">
-        <v>21646.85</v>
-      </c>
-      <c r="C104" t="n">
-        <v>425.85</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1050.65</v>
-      </c>
-      <c r="E104" t="n">
-        <v>344.95</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1385</v>
-      </c>
-      <c r="G104" t="n">
-        <v>186.55</v>
-      </c>
-      <c r="H104" t="n">
-        <v>519.85</v>
+        <v>0.1124964331042472</v>
       </c>
     </row>
     <row r="105">
@@ -22084,25 +20199,7 @@
         <v>44042</v>
       </c>
       <c r="B105" t="n">
-        <v>23600.35</v>
-      </c>
-      <c r="C105" t="n">
-        <v>473.05</v>
-      </c>
-      <c r="D105" t="n">
-        <v>1112.1</v>
-      </c>
-      <c r="E105" t="n">
-        <v>392.2</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1420</v>
-      </c>
-      <c r="G105" t="n">
-        <v>215.65</v>
-      </c>
-      <c r="H105" t="n">
-        <v>605.85</v>
+        <v>0.005158093294627166</v>
       </c>
     </row>
     <row r="106">
@@ -22110,25 +20207,7 @@
         <v>44070</v>
       </c>
       <c r="B106" t="n">
-        <v>20456.85</v>
-      </c>
-      <c r="C106" t="n">
-        <v>402.45</v>
-      </c>
-      <c r="D106" t="n">
-        <v>1030.4</v>
-      </c>
-      <c r="E106" t="n">
-        <v>335.7</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1246.1</v>
-      </c>
-      <c r="G106" t="n">
-        <v>176.35</v>
-      </c>
-      <c r="H106" t="n">
-        <v>490.25</v>
+        <v>-0.05088289087380501</v>
       </c>
     </row>
     <row r="107">
@@ -22136,25 +20215,7 @@
         <v>44098</v>
       </c>
       <c r="B107" t="n">
-        <v>24092</v>
-      </c>
-      <c r="C107" t="n">
-        <v>493.85</v>
-      </c>
-      <c r="D107" t="n">
-        <v>1187.2</v>
-      </c>
-      <c r="E107" t="n">
-        <v>399.9</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1570.9</v>
-      </c>
-      <c r="G107" t="n">
-        <v>188.7</v>
-      </c>
-      <c r="H107" t="n">
-        <v>588.7</v>
+        <v>-0.07504127095688794</v>
       </c>
     </row>
     <row r="108">
@@ -22162,25 +20223,7 @@
         <v>44133</v>
       </c>
       <c r="B108" t="n">
-        <v>29549.75</v>
-      </c>
-      <c r="C108" t="n">
-        <v>612.55</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1426.65</v>
-      </c>
-      <c r="E108" t="n">
-        <v>475.3</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1889.1</v>
-      </c>
-      <c r="G108" t="n">
-        <v>245.45</v>
-      </c>
-      <c r="H108" t="n">
-        <v>850.55</v>
+        <v>-0.1304088876318211</v>
       </c>
     </row>
     <row r="109">
@@ -22188,25 +20231,7 @@
         <v>44161</v>
       </c>
       <c r="B109" t="n">
-        <v>31264.05</v>
-      </c>
-      <c r="C109" t="n">
-        <v>620.45</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1436.3</v>
-      </c>
-      <c r="E109" t="n">
-        <v>535.05</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1995.6</v>
-      </c>
-      <c r="G109" t="n">
-        <v>274.95</v>
-      </c>
-      <c r="H109" t="n">
-        <v>894.95</v>
+        <v>0.03203605420127135</v>
       </c>
     </row>
     <row r="110">
@@ -22214,2920 +20239,7 @@
         <v>44196</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H110"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Dates</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>NSEBANK Index</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AXSB IS Equity</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HDFCB IS Equity</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ICICIBC IS Equity</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>KMB IS Equity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SBIN IS Equity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>IIB IS Equity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>40906</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1856.6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>263.6500000000001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.19999999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>200.05</v>
-      </c>
-      <c r="F2" t="n">
-        <v>55.55000000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>408</v>
-      </c>
-      <c r="H2" t="n">
-        <v>55.80000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>40933</v>
-      </c>
-      <c r="B3" t="n">
-        <v>813.3500000000004</v>
-      </c>
-      <c r="C3" t="n">
-        <v>167.7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>53.14999999999998</v>
-      </c>
-      <c r="E3" t="n">
-        <v>63.95000000000005</v>
-      </c>
-      <c r="F3" t="n">
-        <v>87.45000000000005</v>
-      </c>
-      <c r="G3" t="n">
-        <v>210.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13.55000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>40962</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-772.3500000000004</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-77.95000000000005</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-9.899999999999977</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-84.25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-35.39999999999998</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-188.6500000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-12.94999999999999</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>40997</v>
-      </c>
-      <c r="B5" t="n">
-        <v>228</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-13.34999999999991</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-18.54999999999995</v>
-      </c>
-      <c r="F5" t="n">
-        <v>62.85000000000002</v>
-      </c>
-      <c r="G5" t="n">
-        <v>112.3499999999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>32.85000000000002</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>41025</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-659</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-129.05</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-53.80000000000001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-56.75</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-36.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-93.94999999999982</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-41.60000000000002</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>41060</v>
-      </c>
-      <c r="B7" t="n">
-        <v>603.8500000000004</v>
-      </c>
-      <c r="C7" t="n">
-        <v>28.60000000000002</v>
-      </c>
-      <c r="D7" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>76.95000000000005</v>
-      </c>
-      <c r="F7" t="n">
-        <v>15.85000000000002</v>
-      </c>
-      <c r="G7" t="n">
-        <v>48.30000000000018</v>
-      </c>
-      <c r="H7" t="n">
-        <v>28.19999999999999</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>41088</v>
-      </c>
-      <c r="B8" t="n">
-        <v>83.79999999999927</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.200000000000045</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5.799999999999955</v>
-      </c>
-      <c r="E8" t="n">
-        <v>46.75</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-18.60000000000002</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-82.59999999999991</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.949999999999989</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>41116</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-14.79999999999927</v>
-      </c>
-      <c r="C9" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>35.89999999999998</v>
-      </c>
-      <c r="E9" t="n">
-        <v>19.95000000000005</v>
-      </c>
-      <c r="F9" t="n">
-        <v>32.54999999999995</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-160.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>41151</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1319.450000000001</v>
-      </c>
-      <c r="C10" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="D10" t="n">
-        <v>30.79999999999995</v>
-      </c>
-      <c r="E10" t="n">
-        <v>135.3499999999999</v>
-      </c>
-      <c r="F10" t="n">
-        <v>44.64999999999998</v>
-      </c>
-      <c r="G10" t="n">
-        <v>397.25</v>
-      </c>
-      <c r="H10" t="n">
-        <v>23.30000000000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>41179</v>
-      </c>
-      <c r="B11" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>88.04999999999995</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-2.649999999999977</v>
-      </c>
-      <c r="E11" t="n">
-        <v>27.15000000000009</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-14.29999999999995</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-50.65000000000009</v>
-      </c>
-      <c r="H11" t="n">
-        <v>25.44999999999999</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>41207</v>
-      </c>
-      <c r="B12" t="n">
-        <v>392.7999999999993</v>
-      </c>
-      <c r="C12" t="n">
-        <v>60.20000000000005</v>
-      </c>
-      <c r="D12" t="n">
-        <v>59.85000000000002</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F12" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-68.15000000000009</v>
-      </c>
-      <c r="H12" t="n">
-        <v>56.94999999999999</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>41242</v>
-      </c>
-      <c r="B13" t="n">
-        <v>459.7000000000007</v>
-      </c>
-      <c r="C13" t="n">
-        <v>64.29999999999995</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.1000000000000227</v>
-      </c>
-      <c r="E13" t="n">
-        <v>36.45000000000005</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9.799999999999955</v>
-      </c>
-      <c r="G13" t="n">
-        <v>238.3499999999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-5.800000000000011</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>41270</v>
-      </c>
-      <c r="B14" t="n">
-        <v>208.6000000000004</v>
-      </c>
-      <c r="C14" t="n">
-        <v>155.1500000000001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-36.95000000000005</v>
-      </c>
-      <c r="E14" t="n">
-        <v>41.15000000000009</v>
-      </c>
-      <c r="F14" t="n">
-        <v>40.35000000000002</v>
-      </c>
-      <c r="G14" t="n">
-        <v>38</v>
-      </c>
-      <c r="H14" t="n">
-        <v>15.80000000000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>41305</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-1212.65</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-155.8499999999999</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-14.64999999999998</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-159.5999999999999</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-20.39999999999998</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-369.0999999999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>41333</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-138.1499999999996</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-49.29999999999995</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-14.64999999999998</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-4.799999999999955</v>
-      </c>
-      <c r="F16" t="n">
-        <v>13</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-27.25</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-15.30000000000001</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>41361</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1326.85</v>
-      </c>
-      <c r="C17" t="n">
-        <v>203.4000000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>49.54999999999995</v>
-      </c>
-      <c r="E17" t="n">
-        <v>127.3499999999999</v>
-      </c>
-      <c r="F17" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="G17" t="n">
-        <v>284.5500000000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>67.85000000000002</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>41389</v>
-      </c>
-      <c r="B18" t="n">
-        <v>105.8999999999996</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-67.29999999999995</v>
-      </c>
-      <c r="D18" t="n">
-        <v>45.14999999999998</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.799999999999955</v>
-      </c>
-      <c r="F18" t="n">
-        <v>79.85000000000002</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-261.4499999999998</v>
-      </c>
-      <c r="H18" t="n">
-        <v>68.85000000000002</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>41424</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-1564.25</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-124.95</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-73.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-149.45</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-97.89999999999998</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-187.5</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-64.35000000000002</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>41452</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-586</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-172.75</v>
-      </c>
-      <c r="D20" t="n">
-        <v>13.85000000000002</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-105.15</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-34.85000000000002</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-101.8499999999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-37.55000000000001</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>41480</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-1695.4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-299.25</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-67.95000000000005</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-132.8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-32.54999999999995</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-312.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-66.94999999999999</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>41515</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1198.25</v>
-      </c>
-      <c r="C22" t="n">
-        <v>181.3499999999999</v>
-      </c>
-      <c r="D22" t="n">
-        <v>61.14999999999998</v>
-      </c>
-      <c r="E22" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>63.39999999999998</v>
-      </c>
-      <c r="G22" t="n">
-        <v>176.0999999999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>23.39999999999998</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>41543</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1373.15</v>
-      </c>
-      <c r="C23" t="n">
-        <v>172.7</v>
-      </c>
-      <c r="D23" t="n">
-        <v>40.79999999999995</v>
-      </c>
-      <c r="E23" t="n">
-        <v>180.95</v>
-      </c>
-      <c r="F23" t="n">
-        <v>32.45000000000005</v>
-      </c>
-      <c r="G23" t="n">
-        <v>96.75</v>
-      </c>
-      <c r="H23" t="n">
-        <v>65.60000000000002</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>41578</v>
-      </c>
-      <c r="B24" t="n">
-        <v>-593.25</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-79.75</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-26.60000000000002</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-81.90000000000009</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-8.100000000000023</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-36.40000000000009</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-22.5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>41606</v>
-      </c>
-      <c r="B25" t="n">
-        <v>485.75</v>
-      </c>
-      <c r="C25" t="n">
-        <v>197.05</v>
-      </c>
-      <c r="D25" t="n">
-        <v>29.04999999999995</v>
-      </c>
-      <c r="E25" t="n">
-        <v>59.65000000000009</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-34.10000000000002</v>
-      </c>
-      <c r="G25" t="n">
-        <v>3.450000000000045</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-0.1999999999999886</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>41634</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-1246.85</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-191.2</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-48.20000000000005</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-125.45</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-69.95000000000005</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-233.4000000000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-41.55000000000001</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>41669</v>
-      </c>
-      <c r="B27" t="n">
-        <v>530.3999999999996</v>
-      </c>
-      <c r="C27" t="n">
-        <v>139.25</v>
-      </c>
-      <c r="D27" t="n">
-        <v>37.39999999999998</v>
-      </c>
-      <c r="E27" t="n">
-        <v>56.45000000000005</v>
-      </c>
-      <c r="F27" t="n">
-        <v>45.39999999999998</v>
-      </c>
-      <c r="G27" t="n">
-        <v>20.40000000000009</v>
-      </c>
-      <c r="H27" t="n">
-        <v>15.80000000000001</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>41696</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1904.950000000001</v>
-      </c>
-      <c r="C28" t="n">
-        <v>179.95</v>
-      </c>
-      <c r="D28" t="n">
-        <v>66.75</v>
-      </c>
-      <c r="E28" t="n">
-        <v>209</v>
-      </c>
-      <c r="F28" t="n">
-        <v>91.89999999999998</v>
-      </c>
-      <c r="G28" t="n">
-        <v>337</v>
-      </c>
-      <c r="H28" t="n">
-        <v>91.64999999999998</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>41725</v>
-      </c>
-      <c r="B29" t="n">
-        <v>522.1000000000004</v>
-      </c>
-      <c r="C29" t="n">
-        <v>69.79999999999995</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-27</v>
-      </c>
-      <c r="E29" t="n">
-        <v>49.54999999999995</v>
-      </c>
-      <c r="F29" t="n">
-        <v>62.39999999999998</v>
-      </c>
-      <c r="G29" t="n">
-        <v>215.1999999999998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-2.600000000000023</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>41752</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1930.299999999999</v>
-      </c>
-      <c r="C30" t="n">
-        <v>365.7</v>
-      </c>
-      <c r="D30" t="n">
-        <v>90.25</v>
-      </c>
-      <c r="E30" t="n">
-        <v>136.95</v>
-      </c>
-      <c r="F30" t="n">
-        <v>20.35000000000002</v>
-      </c>
-      <c r="G30" t="n">
-        <v>551.4499999999998</v>
-      </c>
-      <c r="H30" t="n">
-        <v>42.75</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>41788</v>
-      </c>
-      <c r="B31" t="n">
-        <v>50</v>
-      </c>
-      <c r="C31" t="n">
-        <v>27.59999999999991</v>
-      </c>
-      <c r="D31" t="n">
-        <v>12.39999999999998</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-37.34999999999991</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-14.29999999999995</v>
-      </c>
-      <c r="G31" t="n">
-        <v>52.55000000000018</v>
-      </c>
-      <c r="H31" t="n">
-        <v>25.54999999999995</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>41816</v>
-      </c>
-      <c r="B32" t="n">
-        <v>167.6000000000004</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-1528.35</v>
-      </c>
-      <c r="D32" t="n">
-        <v>34</v>
-      </c>
-      <c r="E32" t="n">
-        <v>71.25</v>
-      </c>
-      <c r="F32" t="n">
-        <v>73.70000000000005</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-220.75</v>
-      </c>
-      <c r="H32" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>41851</v>
-      </c>
-      <c r="B33" t="n">
-        <v>440.3999999999996</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-2.75</v>
-      </c>
-      <c r="D33" t="n">
-        <v>3.549999999999955</v>
-      </c>
-      <c r="E33" t="n">
-        <v>76.79999999999995</v>
-      </c>
-      <c r="F33" t="n">
-        <v>77.54999999999995</v>
-      </c>
-      <c r="G33" t="n">
-        <v>10.69999999999982</v>
-      </c>
-      <c r="H33" t="n">
-        <v>25.45000000000005</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>41879</v>
-      </c>
-      <c r="B34" t="n">
-        <v>-400.9500000000007</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-22.14999999999998</v>
-      </c>
-      <c r="D34" t="n">
-        <v>9.950000000000045</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-84.70000000000005</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-11.5</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-72.30000000000018</v>
-      </c>
-      <c r="H34" t="n">
-        <v>31.54999999999995</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>41907</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1460.049999999999</v>
-      </c>
-      <c r="C35" t="n">
-        <v>50.19999999999999</v>
-      </c>
-      <c r="D35" t="n">
-        <v>56.64999999999998</v>
-      </c>
-      <c r="E35" t="n">
-        <v>164.05</v>
-      </c>
-      <c r="F35" t="n">
-        <v>54</v>
-      </c>
-      <c r="G35" t="n">
-        <v>238</v>
-      </c>
-      <c r="H35" t="n">
-        <v>90.25</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>41942</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1222.5</v>
-      </c>
-      <c r="C36" t="n">
-        <v>29.39999999999998</v>
-      </c>
-      <c r="D36" t="n">
-        <v>68.14999999999998</v>
-      </c>
-      <c r="E36" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="F36" t="n">
-        <v>77.59999999999991</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-2344.15</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.6000000000000227</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>41970</v>
-      </c>
-      <c r="B37" t="n">
-        <v>535.3499999999985</v>
-      </c>
-      <c r="C37" t="n">
-        <v>34.30000000000001</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-14.75</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-1346.9</v>
-      </c>
-      <c r="F37" t="n">
-        <v>85.34999999999991</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H37" t="n">
-        <v>64.54999999999995</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>41997</v>
-      </c>
-      <c r="B38" t="n">
-        <v>2028.599999999999</v>
-      </c>
-      <c r="C38" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="D38" t="n">
-        <v>135</v>
-      </c>
-      <c r="E38" t="n">
-        <v>30.30000000000001</v>
-      </c>
-      <c r="F38" t="n">
-        <v>91.40000000000009</v>
-      </c>
-      <c r="G38" t="n">
-        <v>22</v>
-      </c>
-      <c r="H38" t="n">
-        <v>96.04999999999995</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>42033</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-1961.900000000001</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-47.70000000000005</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-41.84999999999991</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-58.69999999999999</v>
-      </c>
-      <c r="F39" t="n">
-        <v>13.34999999999991</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-35.60000000000002</v>
-      </c>
-      <c r="H39" t="n">
-        <v>-34.70000000000005</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>42061</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-668.3499999999985</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-15.70000000000005</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-33.04999999999995</v>
-      </c>
-      <c r="E40" t="n">
-        <v>-12.05000000000001</v>
-      </c>
-      <c r="F40" t="n">
-        <v>-44.59999999999991</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-33.35000000000002</v>
-      </c>
-      <c r="H40" t="n">
-        <v>20.35000000000002</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>42089</v>
-      </c>
-      <c r="B41" t="n">
-        <v>538.0999999999985</v>
-      </c>
-      <c r="C41" t="n">
-        <v>27.79999999999995</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-11.20000000000005</v>
-      </c>
-      <c r="E41" t="n">
-        <v>21.14999999999998</v>
-      </c>
-      <c r="F41" t="n">
-        <v>-17.09999999999991</v>
-      </c>
-      <c r="G41" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="H41" t="n">
-        <v>-36.20000000000005</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>42124</v>
-      </c>
-      <c r="B42" t="n">
-        <v>149.2000000000007</v>
-      </c>
-      <c r="C42" t="n">
-        <v>14.64999999999998</v>
-      </c>
-      <c r="D42" t="n">
-        <v>29.40000000000009</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-15.5</v>
-      </c>
-      <c r="F42" t="n">
-        <v>48.15000000000009</v>
-      </c>
-      <c r="G42" t="n">
-        <v>7.600000000000023</v>
-      </c>
-      <c r="H42" t="n">
-        <v>35.29999999999995</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>42152</v>
-      </c>
-      <c r="B43" t="n">
-        <v>92.90000000000146</v>
-      </c>
-      <c r="C43" t="n">
-        <v>-9.950000000000045</v>
-      </c>
-      <c r="D43" t="n">
-        <v>25</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4.800000000000011</v>
-      </c>
-      <c r="F43" t="n">
-        <v>46.59999999999991</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-15.19999999999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>7.149999999999977</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42180</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-59.59999999999854</v>
-      </c>
-      <c r="C44" t="n">
-        <v>-14.29999999999995</v>
-      </c>
-      <c r="D44" t="n">
-        <v>30.54999999999995</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-19</v>
-      </c>
-      <c r="F44" t="n">
-        <v>-683.2</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-13.19999999999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>113.7</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>42215</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-1185.599999999999</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-50.75</v>
-      </c>
-      <c r="D45" t="n">
-        <v>-97.89999999999998</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-7.550000000000011</v>
-      </c>
-      <c r="F45" t="n">
-        <v>-69.60000000000002</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-5.550000000000011</v>
-      </c>
-      <c r="H45" t="n">
-        <v>-121.5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>42243</v>
-      </c>
-      <c r="B46" t="n">
-        <v>-3.349999999998545</v>
-      </c>
-      <c r="C46" t="n">
-        <v>13.95000000000005</v>
-      </c>
-      <c r="D46" t="n">
-        <v>11.40000000000009</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-11.69999999999999</v>
-      </c>
-      <c r="F46" t="n">
-        <v>-5.549999999999955</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-10.94999999999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>66.89999999999998</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>42271</v>
-      </c>
-      <c r="B47" t="n">
-        <v>12.20000000000073</v>
-      </c>
-      <c r="C47" t="n">
-        <v>-51.05000000000001</v>
-      </c>
-      <c r="D47" t="n">
-        <v>63.54999999999995</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1.449999999999989</v>
-      </c>
-      <c r="F47" t="n">
-        <v>4</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-3.050000000000011</v>
-      </c>
-      <c r="H47" t="n">
-        <v>-5.5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>42306</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-163.4500000000007</v>
-      </c>
-      <c r="C48" t="n">
-        <v>5.300000000000011</v>
-      </c>
-      <c r="D48" t="n">
-        <v>-56.04999999999995</v>
-      </c>
-      <c r="E48" t="n">
-        <v>-6</v>
-      </c>
-      <c r="F48" t="n">
-        <v>25.20000000000005</v>
-      </c>
-      <c r="G48" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H48" t="n">
-        <v>-4.450000000000045</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>42334</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-77.79999999999927</v>
-      </c>
-      <c r="C49" t="n">
-        <v>-10.89999999999998</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2.150000000000091</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1.350000000000023</v>
-      </c>
-      <c r="F49" t="n">
-        <v>40.04999999999995</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-20.55000000000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>48.95000000000005</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>42369</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-1518.549999999999</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-34.35000000000002</v>
-      </c>
-      <c r="D50" t="n">
-        <v>-48.29999999999995</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-26.80000000000001</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-56.75</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-39.75</v>
-      </c>
-      <c r="H50" t="n">
-        <v>-52.85000000000002</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>42397</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-1844.299999999999</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-21.80000000000001</v>
-      </c>
-      <c r="D51" t="n">
-        <v>-97.35000000000002</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-47</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-53.14999999999998</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-33.19999999999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>-92.25</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>42425</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2541.65</v>
-      </c>
-      <c r="C52" t="n">
-        <v>64.14999999999998</v>
-      </c>
-      <c r="D52" t="n">
-        <v>111.1500000000001</v>
-      </c>
-      <c r="E52" t="n">
-        <v>56.65000000000001</v>
-      </c>
-      <c r="F52" t="n">
-        <v>80.64999999999998</v>
-      </c>
-      <c r="G52" t="n">
-        <v>44.25</v>
-      </c>
-      <c r="H52" t="n">
-        <v>167.6</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>42460</v>
-      </c>
-      <c r="B53" t="n">
-        <v>616.9000000000015</v>
-      </c>
-      <c r="C53" t="n">
-        <v>28.05000000000001</v>
-      </c>
-      <c r="D53" t="n">
-        <v>33.95000000000005</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="F53" t="n">
-        <v>21.45000000000005</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-2.949999999999989</v>
-      </c>
-      <c r="H53" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>42488</v>
-      </c>
-      <c r="B54" t="n">
-        <v>659.2999999999993</v>
-      </c>
-      <c r="C54" t="n">
-        <v>59</v>
-      </c>
-      <c r="D54" t="n">
-        <v>63.25</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1.150000000000006</v>
-      </c>
-      <c r="F54" t="n">
-        <v>30.20000000000005</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-5.849999999999994</v>
-      </c>
-      <c r="H54" t="n">
-        <v>63.90000000000009</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>42516</v>
-      </c>
-      <c r="B55" t="n">
-        <v>535.4000000000015</v>
-      </c>
-      <c r="C55" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D55" t="n">
-        <v>-23.54999999999995</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.5500000000000114</v>
-      </c>
-      <c r="F55" t="n">
-        <v>23.35000000000002</v>
-      </c>
-      <c r="G55" t="n">
-        <v>33.80000000000001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>11.59999999999991</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>42551</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1176.549999999999</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3.850000000000023</v>
-      </c>
-      <c r="D56" t="n">
-        <v>88.45000000000005</v>
-      </c>
-      <c r="E56" t="n">
-        <v>32</v>
-      </c>
-      <c r="F56" t="n">
-        <v>-9.649999999999977</v>
-      </c>
-      <c r="G56" t="n">
-        <v>11</v>
-      </c>
-      <c r="H56" t="n">
-        <v>48.29999999999995</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>42579</v>
-      </c>
-      <c r="B57" t="n">
-        <v>204.25</v>
-      </c>
-      <c r="C57" t="n">
-        <v>46.54999999999995</v>
-      </c>
-      <c r="D57" t="n">
-        <v>18.54999999999995</v>
-      </c>
-      <c r="E57" t="n">
-        <v>-23.05000000000001</v>
-      </c>
-      <c r="F57" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="G57" t="n">
-        <v>20.15000000000001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>22.04999999999995</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>42607</v>
-      </c>
-      <c r="B58" t="n">
-        <v>-116.3499999999985</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-40.70000000000005</v>
-      </c>
-      <c r="D58" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.3499999999999943</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-7.399999999999977</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-2.75</v>
-      </c>
-      <c r="H58" t="n">
-        <v>17.84999999999991</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>42642</v>
-      </c>
-      <c r="B59" t="n">
-        <v>314.5999999999985</v>
-      </c>
-      <c r="C59" t="n">
-        <v>-54.35000000000002</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-27.90000000000009</v>
-      </c>
-      <c r="E59" t="n">
-        <v>34.30000000000001</v>
-      </c>
-      <c r="F59" t="n">
-        <v>26.60000000000002</v>
-      </c>
-      <c r="G59" t="n">
-        <v>10.40000000000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>-20.95000000000005</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>42670</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-1243.900000000001</v>
-      </c>
-      <c r="C60" t="n">
-        <v>-11.80000000000001</v>
-      </c>
-      <c r="D60" t="n">
-        <v>-74.5</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-20.69999999999999</v>
-      </c>
-      <c r="F60" t="n">
-        <v>-57.89999999999998</v>
-      </c>
-      <c r="G60" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="H60" t="n">
-        <v>-135.5999999999999</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>42698</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-266.8499999999985</v>
-      </c>
-      <c r="C61" t="n">
-        <v>-15.75</v>
-      </c>
-      <c r="D61" t="n">
-        <v>45.20000000000005</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-8.900000000000006</v>
-      </c>
-      <c r="F61" t="n">
-        <v>-26.60000000000002</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-12.34999999999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>65.65000000000009</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>42733</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1473.200000000001</v>
-      </c>
-      <c r="C62" t="n">
-        <v>23.55000000000001</v>
-      </c>
-      <c r="D62" t="n">
-        <v>90.59999999999991</v>
-      </c>
-      <c r="E62" t="n">
-        <v>9.949999999999989</v>
-      </c>
-      <c r="F62" t="n">
-        <v>75.20000000000005</v>
-      </c>
-      <c r="G62" t="n">
-        <v>9.199999999999989</v>
-      </c>
-      <c r="H62" t="n">
-        <v>165.4000000000001</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>42760</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1376.650000000001</v>
-      </c>
-      <c r="C63" t="n">
-        <v>68.14999999999998</v>
-      </c>
-      <c r="D63" t="n">
-        <v>114.3</v>
-      </c>
-      <c r="E63" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F63" t="n">
-        <v>10.95000000000005</v>
-      </c>
-      <c r="G63" t="n">
-        <v>10.44999999999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>80.75</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>42789</v>
-      </c>
-      <c r="B64" t="n">
-        <v>720.7000000000007</v>
-      </c>
-      <c r="C64" t="n">
-        <v>-20.75</v>
-      </c>
-      <c r="D64" t="n">
-        <v>66.20000000000005</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1.350000000000023</v>
-      </c>
-      <c r="F64" t="n">
-        <v>45.14999999999998</v>
-      </c>
-      <c r="G64" t="n">
-        <v>21.05000000000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>82.29999999999995</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>42824</v>
-      </c>
-      <c r="B65" t="n">
-        <v>726.2999999999993</v>
-      </c>
-      <c r="C65" t="n">
-        <v>6.600000000000023</v>
-      </c>
-      <c r="D65" t="n">
-        <v>88.59999999999991</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-5.850000000000023</v>
-      </c>
-      <c r="F65" t="n">
-        <v>56.64999999999998</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-7.949999999999989</v>
-      </c>
-      <c r="H65" t="n">
-        <v>50.65000000000009</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>42852</v>
-      </c>
-      <c r="B66" t="n">
-        <v>890.7999999999993</v>
-      </c>
-      <c r="C66" t="n">
-        <v>7.449999999999989</v>
-      </c>
-      <c r="D66" t="n">
-        <v>57.15000000000009</v>
-      </c>
-      <c r="E66" t="n">
-        <v>47.69999999999999</v>
-      </c>
-      <c r="F66" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="G66" t="n">
-        <v>10.10000000000002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>-18.40000000000009</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>42880</v>
-      </c>
-      <c r="B67" t="n">
-        <v>27.29999999999927</v>
-      </c>
-      <c r="C67" t="n">
-        <v>12.10000000000002</v>
-      </c>
-      <c r="D67" t="n">
-        <v>63.04999999999995</v>
-      </c>
-      <c r="E67" t="n">
-        <v>-6.75</v>
-      </c>
-      <c r="F67" t="n">
-        <v>-11.64999999999998</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-17.55000000000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>19.54999999999995</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>42915</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1722.400000000001</v>
-      </c>
-      <c r="C68" t="n">
-        <v>4.649999999999977</v>
-      </c>
-      <c r="D68" t="n">
-        <v>109.6500000000001</v>
-      </c>
-      <c r="E68" t="n">
-        <v>17.19999999999999</v>
-      </c>
-      <c r="F68" t="n">
-        <v>58.14999999999998</v>
-      </c>
-      <c r="G68" t="n">
-        <v>28.35000000000002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>126.7</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>42943</v>
-      </c>
-      <c r="B69" t="n">
-        <v>-581.5999999999985</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-19.64999999999998</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-23.54999999999995</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-11.94999999999999</v>
-      </c>
-      <c r="F69" t="n">
-        <v>-24</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-22.25</v>
-      </c>
-      <c r="H69" t="n">
-        <v>56.75</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>42978</v>
-      </c>
-      <c r="B70" t="n">
-        <v>-291.8499999999985</v>
-      </c>
-      <c r="C70" t="n">
-        <v>11.80000000000001</v>
-      </c>
-      <c r="D70" t="n">
-        <v>35.29999999999995</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-24.05000000000001</v>
-      </c>
-      <c r="F70" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-27.44999999999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>20.75</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>43006</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1022.200000000001</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-35.69999999999999</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-4.650000000000091</v>
-      </c>
-      <c r="E71" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="F71" t="n">
-        <v>18.89999999999998</v>
-      </c>
-      <c r="G71" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="H71" t="n">
-        <v>-62.40000000000009</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>43034</v>
-      </c>
-      <c r="B72" t="n">
-        <v>332.4000000000015</v>
-      </c>
-      <c r="C72" t="n">
-        <v>55.39999999999998</v>
-      </c>
-      <c r="D72" t="n">
-        <v>53.70000000000005</v>
-      </c>
-      <c r="E72" t="n">
-        <v>7.550000000000011</v>
-      </c>
-      <c r="F72" t="n">
-        <v>-19.70000000000005</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.3500000000000227</v>
-      </c>
-      <c r="H72" t="n">
-        <v>41.95000000000005</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>43069</v>
-      </c>
-      <c r="B73" t="n">
-        <v>190</v>
-      </c>
-      <c r="C73" t="n">
-        <v>6.850000000000023</v>
-      </c>
-      <c r="D73" t="n">
-        <v>38.04999999999995</v>
-      </c>
-      <c r="E73" t="n">
-        <v>5.300000000000011</v>
-      </c>
-      <c r="F73" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-11.60000000000002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>-9.549999999999955</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>43097</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1945.650000000001</v>
-      </c>
-      <c r="C74" t="n">
-        <v>76.10000000000002</v>
-      </c>
-      <c r="D74" t="n">
-        <v>94.95000000000005</v>
-      </c>
-      <c r="E74" t="n">
-        <v>40.80000000000001</v>
-      </c>
-      <c r="F74" t="n">
-        <v>92.34999999999991</v>
-      </c>
-      <c r="G74" t="n">
-        <v>3.149999999999977</v>
-      </c>
-      <c r="H74" t="n">
-        <v>70.20000000000005</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>43125</v>
-      </c>
-      <c r="B75" t="n">
-        <v>-2444.799999999999</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-89.75</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-106.8</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-41.64999999999998</v>
-      </c>
-      <c r="F75" t="n">
-        <v>-27.5</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-42.39999999999998</v>
-      </c>
-      <c r="H75" t="n">
-        <v>-116.5</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>43153</v>
-      </c>
-      <c r="B76" t="n">
-        <v>-736.6500000000015</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-29.5</v>
-      </c>
-      <c r="D76" t="n">
-        <v>46.09999999999991</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-41.64999999999998</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-32.20000000000005</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-30.09999999999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>176.75</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>43187</v>
-      </c>
-      <c r="B77" t="n">
-        <v>710.9000000000015</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-26.25</v>
-      </c>
-      <c r="D77" t="n">
-        <v>50.25</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-1.149999999999977</v>
-      </c>
-      <c r="F77" t="n">
-        <v>145.7</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-16.80000000000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>81.90000000000009</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>43216</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1956.200000000001</v>
-      </c>
-      <c r="C78" t="n">
-        <v>45.89999999999998</v>
-      </c>
-      <c r="D78" t="n">
-        <v>219.4499999999998</v>
-      </c>
-      <c r="E78" t="n">
-        <v>5.800000000000011</v>
-      </c>
-      <c r="F78" t="n">
-        <v>154.5999999999999</v>
-      </c>
-      <c r="G78" t="n">
-        <v>34.55000000000001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>75.45000000000005</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>43251</v>
-      </c>
-      <c r="B79" t="n">
-        <v>-675.4000000000015</v>
-      </c>
-      <c r="C79" t="n">
-        <v>-35.39999999999998</v>
-      </c>
-      <c r="D79" t="n">
-        <v>10.84999999999991</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-18.60000000000002</v>
-      </c>
-      <c r="F79" t="n">
-        <v>-0.9000000000000909</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-13</v>
-      </c>
-      <c r="H79" t="n">
-        <v>7.599999999999909</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>43279</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1106.400000000001</v>
-      </c>
-      <c r="C80" t="n">
-        <v>41.64999999999998</v>
-      </c>
-      <c r="D80" t="n">
-        <v>72.59999999999991</v>
-      </c>
-      <c r="E80" t="n">
-        <v>15.64999999999998</v>
-      </c>
-      <c r="F80" t="n">
-        <v>-28.75</v>
-      </c>
-      <c r="G80" t="n">
-        <v>32.69999999999999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.3499999999999091</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>43307</v>
-      </c>
-      <c r="B81" t="n">
-        <v>703.25</v>
-      </c>
-      <c r="C81" t="n">
-        <v>109.75</v>
-      </c>
-      <c r="D81" t="n">
-        <v>-133.9000000000001</v>
-      </c>
-      <c r="E81" t="n">
-        <v>54.35000000000002</v>
-      </c>
-      <c r="F81" t="n">
-        <v>-41.95000000000005</v>
-      </c>
-      <c r="G81" t="n">
-        <v>18.60000000000002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>-84.34999999999991</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>43342</v>
-      </c>
-      <c r="B82" t="n">
-        <v>-3057.849999999999</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-39.85000000000002</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-103.8499999999999</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-33.35000000000002</v>
-      </c>
-      <c r="F82" t="n">
-        <v>-137.55</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-44.64999999999998</v>
-      </c>
-      <c r="H82" t="n">
-        <v>-218</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>43370</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-182.5499999999993</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-38.95000000000005</v>
-      </c>
-      <c r="D83" t="n">
-        <v>8.799999999999955</v>
-      </c>
-      <c r="E83" t="n">
-        <v>9.949999999999989</v>
-      </c>
-      <c r="F83" t="n">
-        <v>45.79999999999995</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-15.44999999999999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>-208.9000000000001</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>43398</v>
-      </c>
-      <c r="B84" t="n">
-        <v>2139.599999999999</v>
-      </c>
-      <c r="C84" t="n">
-        <v>71.39999999999998</v>
-      </c>
-      <c r="D84" t="n">
-        <v>171.0500000000002</v>
-      </c>
-      <c r="E84" t="n">
-        <v>42.19999999999999</v>
-      </c>
-      <c r="F84" t="n">
-        <v>32.95000000000005</v>
-      </c>
-      <c r="G84" t="n">
-        <v>36.39999999999998</v>
-      </c>
-      <c r="H84" t="n">
-        <v>160.55</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>43433</v>
-      </c>
-      <c r="B85" t="n">
-        <v>-21.45000000000073</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-22.45000000000005</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-14.94999999999982</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-4.350000000000023</v>
-      </c>
-      <c r="F85" t="n">
-        <v>20.25</v>
-      </c>
-      <c r="G85" t="n">
-        <v>7.149999999999977</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-96</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>43461</v>
-      </c>
-      <c r="B86" t="n">
-        <v>395.4500000000007</v>
-      </c>
-      <c r="C86" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="D86" t="n">
-        <v>-40.05000000000018</v>
-      </c>
-      <c r="E86" t="n">
-        <v>4.449999999999989</v>
-      </c>
-      <c r="F86" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="G86" t="n">
-        <v>3.649999999999977</v>
-      </c>
-      <c r="H86" t="n">
-        <v>-54.45000000000005</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>43496</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-510.0999999999985</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-10.45000000000005</v>
-      </c>
-      <c r="D87" t="n">
-        <v>-2.449999999999818</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-9.850000000000023</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-46.90000000000009</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-25.94999999999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>-26.15000000000009</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>43524</v>
-      </c>
-      <c r="B88" t="n">
-        <v>3620.549999999999</v>
-      </c>
-      <c r="C88" t="n">
-        <v>80.70000000000005</v>
-      </c>
-      <c r="D88" t="n">
-        <v>222.8000000000002</v>
-      </c>
-      <c r="E88" t="n">
-        <v>50.55000000000001</v>
-      </c>
-      <c r="F88" t="n">
-        <v>120.75</v>
-      </c>
-      <c r="G88" t="n">
-        <v>49</v>
-      </c>
-      <c r="H88" t="n">
-        <v>321.0999999999999</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>43552</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-838.6500000000015</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-39.10000000000002</v>
-      </c>
-      <c r="D89" t="n">
-        <v>-56.55000000000018</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-4.600000000000023</v>
-      </c>
-      <c r="F89" t="n">
-        <v>20.40000000000009</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-13.80000000000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-116.55</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>43580</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1937.099999999999</v>
-      </c>
-      <c r="C90" t="n">
-        <v>67.54999999999995</v>
-      </c>
-      <c r="D90" t="n">
-        <v>159.5500000000002</v>
-      </c>
-      <c r="E90" t="n">
-        <v>26.19999999999999</v>
-      </c>
-      <c r="F90" t="n">
-        <v>175.3499999999999</v>
-      </c>
-      <c r="G90" t="n">
-        <v>48.55000000000001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-93.09999999999991</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>43615</v>
-      </c>
-      <c r="B91" t="n">
-        <v>-230.5</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.4500000000000455</v>
-      </c>
-      <c r="D91" t="n">
-        <v>22.30000000000018</v>
-      </c>
-      <c r="E91" t="n">
-        <v>10.94999999999999</v>
-      </c>
-      <c r="F91" t="n">
-        <v>-58.40000000000009</v>
-      </c>
-      <c r="G91" t="n">
-        <v>7.149999999999977</v>
-      </c>
-      <c r="H91" t="n">
-        <v>-129.8</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>43643</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-2256.950000000001</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-76.85000000000002</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-193.9499999999998</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-31</v>
-      </c>
-      <c r="F92" t="n">
-        <v>5.049999999999955</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-18.69999999999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>-68.34999999999991</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>43671</v>
-      </c>
-      <c r="B93" t="n">
-        <v>-1694.799999999999</v>
-      </c>
-      <c r="C93" t="n">
-        <v>-58.85000000000002</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-53.05000000000018</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-5.600000000000023</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-29.15000000000009</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-65.5</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-49.45000000000005</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>43706</v>
-      </c>
-      <c r="B94" t="n">
-        <v>2702.599999999999</v>
-      </c>
-      <c r="C94" t="n">
-        <v>39.89999999999998</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-997.5</v>
-      </c>
-      <c r="E94" t="n">
-        <v>51.94999999999999</v>
-      </c>
-      <c r="F94" t="n">
-        <v>166.8499999999999</v>
-      </c>
-      <c r="G94" t="n">
-        <v>6.850000000000023</v>
-      </c>
-      <c r="H94" t="n">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>43734</v>
-      </c>
-      <c r="B95" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="C95" t="n">
-        <v>36.35000000000002</v>
-      </c>
-      <c r="D95" t="n">
-        <v>-9.650000000000091</v>
-      </c>
-      <c r="E95" t="n">
-        <v>13.05000000000001</v>
-      </c>
-      <c r="F95" t="n">
-        <v>-45.5</v>
-      </c>
-      <c r="G95" t="n">
-        <v>32.39999999999998</v>
-      </c>
-      <c r="H95" t="n">
-        <v>-236.8</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>43769</v>
-      </c>
-      <c r="B96" t="n">
-        <v>2022.950000000001</v>
-      </c>
-      <c r="C96" t="n">
-        <v>10.60000000000002</v>
-      </c>
-      <c r="D96" t="n">
-        <v>25.29999999999995</v>
-      </c>
-      <c r="E96" t="n">
-        <v>59.14999999999998</v>
-      </c>
-      <c r="F96" t="n">
-        <v>35</v>
-      </c>
-      <c r="G96" t="n">
-        <v>39.30000000000001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>248.25</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>43797</v>
-      </c>
-      <c r="B97" t="n">
-        <v>-102.2999999999993</v>
-      </c>
-      <c r="C97" t="n">
-        <v>-23.5</v>
-      </c>
-      <c r="D97" t="n">
-        <v>10.45000000000005</v>
-      </c>
-      <c r="E97" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="F97" t="n">
-        <v>74.25</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-20.14999999999998</v>
-      </c>
-      <c r="H97" t="n">
-        <v>-44.59999999999991</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>43825</v>
-      </c>
-      <c r="B98" t="n">
-        <v>-1352.599999999999</v>
-      </c>
-      <c r="C98" t="n">
-        <v>-9.100000000000023</v>
-      </c>
-      <c r="D98" t="n">
-        <v>-53.95000000000005</v>
-      </c>
-      <c r="E98" t="n">
-        <v>-7.799999999999955</v>
-      </c>
-      <c r="F98" t="n">
-        <v>-71.75</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-19.30000000000001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>-288.5</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>43860</v>
-      </c>
-      <c r="B99" t="n">
-        <v>-413</v>
-      </c>
-      <c r="C99" t="n">
-        <v>-4.149999999999977</v>
-      </c>
-      <c r="D99" t="n">
-        <v>-20.54999999999995</v>
-      </c>
-      <c r="E99" t="n">
-        <v>-14.64999999999998</v>
-      </c>
-      <c r="F99" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="G99" t="n">
-        <v>11.94999999999999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>-124.45</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>43888</v>
-      </c>
-      <c r="B100" t="n">
-        <v>-10586.1</v>
-      </c>
-      <c r="C100" t="n">
-        <v>-398.6</v>
-      </c>
-      <c r="D100" t="n">
-        <v>-298.9</v>
-      </c>
-      <c r="E100" t="n">
-        <v>-189.75</v>
-      </c>
-      <c r="F100" t="n">
-        <v>-307.05</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-127.25</v>
-      </c>
-      <c r="H100" t="n">
-        <v>-664.1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>43916</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1934.5</v>
-      </c>
-      <c r="C101" t="n">
-        <v>104.9</v>
-      </c>
-      <c r="D101" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="E101" t="n">
-        <v>50.14999999999998</v>
-      </c>
-      <c r="F101" t="n">
-        <v>-22.79999999999995</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H101" t="n">
-        <v>18.14999999999998</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>43951</v>
-      </c>
-      <c r="B102" t="n">
-        <v>-2330.200000000001</v>
-      </c>
-      <c r="C102" t="n">
-        <v>-49.05000000000001</v>
-      </c>
-      <c r="D102" t="n">
-        <v>-54.75</v>
-      </c>
-      <c r="E102" t="n">
-        <v>-53.14999999999998</v>
-      </c>
-      <c r="F102" t="n">
-        <v>-130.55</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-31.80000000000001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>-73.14999999999998</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>43979</v>
-      </c>
-      <c r="B103" t="n">
-        <v>2306.150000000001</v>
-      </c>
-      <c r="C103" t="n">
-        <v>21.69999999999999</v>
-      </c>
-      <c r="D103" t="n">
-        <v>88.75</v>
-      </c>
-      <c r="E103" t="n">
-        <v>21</v>
-      </c>
-      <c r="F103" t="n">
-        <v>131.7</v>
-      </c>
-      <c r="G103" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="H103" t="n">
-        <v>95.14999999999998</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>44007</v>
-      </c>
-      <c r="B104" t="n">
-        <v>146.8499999999985</v>
-      </c>
-      <c r="C104" t="n">
-        <v>5.850000000000023</v>
-      </c>
-      <c r="D104" t="n">
-        <v>30.65000000000009</v>
-      </c>
-      <c r="E104" t="n">
-        <v>-5.050000000000011</v>
-      </c>
-      <c r="F104" t="n">
-        <v>5</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1.550000000000011</v>
-      </c>
-      <c r="H104" t="n">
-        <v>39.85000000000002</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>44042</v>
-      </c>
-      <c r="B105" t="n">
-        <v>2000.349999999999</v>
-      </c>
-      <c r="C105" t="n">
-        <v>53.05000000000001</v>
-      </c>
-      <c r="D105" t="n">
-        <v>52.09999999999991</v>
-      </c>
-      <c r="E105" t="n">
-        <v>52.19999999999999</v>
-      </c>
-      <c r="F105" t="n">
-        <v>40</v>
-      </c>
-      <c r="G105" t="n">
-        <v>30.65000000000001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>85.85000000000002</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>44070</v>
-      </c>
-      <c r="B106" t="n">
-        <v>-3143.150000000001</v>
-      </c>
-      <c r="C106" t="n">
-        <v>-77.55000000000001</v>
-      </c>
-      <c r="D106" t="n">
-        <v>-89.59999999999991</v>
-      </c>
-      <c r="E106" t="n">
-        <v>-54.30000000000001</v>
-      </c>
-      <c r="F106" t="n">
-        <v>-173.9000000000001</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-38.65000000000001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>-109.75</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>44098</v>
-      </c>
-      <c r="B107" t="n">
-        <v>3592</v>
-      </c>
-      <c r="C107" t="n">
-        <v>93.85000000000002</v>
-      </c>
-      <c r="D107" t="n">
-        <v>147.2</v>
-      </c>
-      <c r="E107" t="n">
-        <v>59.89999999999998</v>
-      </c>
-      <c r="F107" t="n">
-        <v>330.9000000000001</v>
-      </c>
-      <c r="G107" t="n">
-        <v>13.69999999999999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>88.70000000000005</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>44133</v>
-      </c>
-      <c r="B108" t="n">
-        <v>5449.75</v>
-      </c>
-      <c r="C108" t="n">
-        <v>112.55</v>
-      </c>
-      <c r="D108" t="n">
-        <v>246.6500000000001</v>
-      </c>
-      <c r="E108" t="n">
-        <v>75.30000000000001</v>
-      </c>
-      <c r="F108" t="n">
-        <v>309.0999999999999</v>
-      </c>
-      <c r="G108" t="n">
-        <v>55.44999999999999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>270.55</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>44161</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1764.049999999999</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.4500000000000455</v>
-      </c>
-      <c r="D109" t="n">
-        <v>16.29999999999995</v>
-      </c>
-      <c r="E109" t="n">
-        <v>55.04999999999995</v>
-      </c>
-      <c r="F109" t="n">
-        <v>115.5999999999999</v>
-      </c>
-      <c r="G109" t="n">
-        <v>29.94999999999999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>34.95000000000005</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>44196</v>
-      </c>
-      <c r="B110" t="n">
-        <v>-31300</v>
-      </c>
-      <c r="C110" t="n">
-        <v>-620</v>
-      </c>
-      <c r="D110" t="n">
-        <v>-1440</v>
-      </c>
-      <c r="E110" t="n">
-        <v>-540</v>
-      </c>
-      <c r="F110" t="n">
-        <v>-2000</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-275</v>
-      </c>
-      <c r="H110" t="n">
-        <v>-900</v>
+        <v>-0.9256391577449071</v>
       </c>
     </row>
   </sheetData>
